--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986686726911383</v>
+        <v>0.9866867269113834</v>
       </c>
       <c r="D2">
-        <v>1.007841866470411</v>
+        <v>1.007841866470412</v>
       </c>
       <c r="E2">
-        <v>0.961968196227825</v>
+        <v>0.9619681962278255</v>
       </c>
       <c r="F2">
-        <v>0.9950508777951302</v>
+        <v>0.9950508777951306</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.019193022106886</v>
       </c>
       <c r="L2">
-        <v>0.9739840947423976</v>
+        <v>0.9739840947423981</v>
       </c>
       <c r="M2">
         <v>1.006579595098882</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997497826403914</v>
+        <v>0.9974978264039128</v>
       </c>
       <c r="D3">
-        <v>1.016411610147959</v>
+        <v>1.016411610147958</v>
       </c>
       <c r="E3">
-        <v>0.9711246250495537</v>
+        <v>0.9711246250495528</v>
       </c>
       <c r="F3">
-        <v>1.005149199020965</v>
+        <v>1.005149199020964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044472422076146</v>
+        <v>1.044472422076145</v>
       </c>
       <c r="J3">
-        <v>1.018056936394039</v>
+        <v>1.018056936394037</v>
       </c>
       <c r="K3">
-        <v>1.026838720990719</v>
+        <v>1.026838720990718</v>
       </c>
       <c r="L3">
-        <v>0.9821408084235344</v>
+        <v>0.9821408084235335</v>
       </c>
       <c r="M3">
-        <v>1.015716616133762</v>
+        <v>1.01571661613376</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.021704235500926</v>
       </c>
       <c r="E4">
-        <v>0.9767426749300709</v>
+        <v>0.9767426749300706</v>
       </c>
       <c r="F4">
         <v>1.01137084096136</v>
@@ -521,7 +521,7 @@
         <v>1.031547580888222</v>
       </c>
       <c r="L4">
-        <v>0.9871301437190366</v>
+        <v>0.9871301437190365</v>
       </c>
       <c r="M4">
         <v>1.021333940052482</v>
@@ -541,10 +541,10 @@
         <v>1.02387389450791</v>
       </c>
       <c r="E5">
-        <v>0.9790374274702683</v>
+        <v>0.9790374274702677</v>
       </c>
       <c r="F5">
-        <v>1.013918105592404</v>
+        <v>1.013918105592403</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.048028065782712</v>
       </c>
       <c r="J5">
-        <v>1.02568820183266</v>
+        <v>1.025688201832659</v>
       </c>
       <c r="K5">
-        <v>1.033474877170024</v>
+        <v>1.033474877170023</v>
       </c>
       <c r="L5">
-        <v>0.9891644736064115</v>
+        <v>0.9891644736064106</v>
       </c>
       <c r="M5">
-        <v>1.023630941530877</v>
+        <v>1.023630941530876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007365750712829</v>
+        <v>1.007365750712832</v>
       </c>
       <c r="D6">
-        <v>1.024235078540635</v>
+        <v>1.024235078540638</v>
       </c>
       <c r="E6">
-        <v>0.9794189611493581</v>
+        <v>0.9794189611493592</v>
       </c>
       <c r="F6">
-        <v>1.014341969202464</v>
+        <v>1.014341969202466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048199303492328</v>
+        <v>1.04819930349233</v>
       </c>
       <c r="J6">
-        <v>1.026057139167203</v>
+        <v>1.026057139167206</v>
       </c>
       <c r="K6">
-        <v>1.033795537470573</v>
+        <v>1.033795537470576</v>
       </c>
       <c r="L6">
-        <v>0.9895024970564171</v>
+        <v>0.9895024970564184</v>
       </c>
       <c r="M6">
-        <v>1.024012995401469</v>
+        <v>1.024012995401471</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004210421168506</v>
+        <v>1.004210421168507</v>
       </c>
       <c r="D7">
-        <v>1.021733437908322</v>
+        <v>1.021733437908324</v>
       </c>
       <c r="E7">
-        <v>0.9767735933618137</v>
+        <v>0.9767735933618141</v>
       </c>
       <c r="F7">
-        <v>1.011405138124414</v>
+        <v>1.011405138124415</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04701160071455</v>
       </c>
       <c r="J7">
-        <v>1.02350098223142</v>
+        <v>1.023500982231421</v>
       </c>
       <c r="K7">
-        <v>1.031573533250833</v>
+        <v>1.031573533250834</v>
       </c>
       <c r="L7">
         <v>0.9871575676491117</v>
       </c>
       <c r="M7">
-        <v>1.021364878830208</v>
+        <v>1.021364878830209</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990410920139974</v>
+        <v>0.990410920139976</v>
       </c>
       <c r="D8">
-        <v>1.010793665817564</v>
+        <v>1.010793665817566</v>
       </c>
       <c r="E8">
-        <v>0.9651303199452642</v>
+        <v>0.9651303199452643</v>
       </c>
       <c r="F8">
-        <v>0.9985326410911408</v>
+        <v>0.9985326410911416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041774607550855</v>
+        <v>1.041774607550856</v>
       </c>
       <c r="J8">
-        <v>1.012300985627349</v>
+        <v>1.01230098562735</v>
       </c>
       <c r="K8">
-        <v>1.021829388349519</v>
+        <v>1.021829388349521</v>
       </c>
       <c r="L8">
-        <v>0.976804298668108</v>
+        <v>0.9768042986681081</v>
       </c>
       <c r="M8">
-        <v>1.009732525440625</v>
+        <v>1.009732525440626</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632827618196637</v>
+        <v>0.9632827618196622</v>
       </c>
       <c r="D9">
-        <v>0.9893040074723258</v>
+        <v>0.9893040074723246</v>
       </c>
       <c r="E9">
-        <v>0.9419150271540927</v>
+        <v>0.9419150271540921</v>
       </c>
       <c r="F9">
-        <v>0.9730979080618049</v>
+        <v>0.9730979080618035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031312524126606</v>
+        <v>1.031312524126605</v>
       </c>
       <c r="J9">
-        <v>0.9902022238120797</v>
+        <v>0.9902022238120783</v>
       </c>
       <c r="K9">
-        <v>1.002573036635135</v>
+        <v>1.002573036635134</v>
       </c>
       <c r="L9">
-        <v>0.9560264650481917</v>
+        <v>0.956026465048191</v>
       </c>
       <c r="M9">
-        <v>0.9866430728748385</v>
+        <v>0.9866430728748373</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9426600877324133</v>
+        <v>0.9426600877324142</v>
       </c>
       <c r="D10">
-        <v>0.9729953102140997</v>
+        <v>0.9729953102141002</v>
       </c>
       <c r="E10">
         <v>0.923997873898404</v>
       </c>
       <c r="F10">
-        <v>0.9536521174960668</v>
+        <v>0.9536521174960672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023246547017524</v>
+        <v>1.023246547017525</v>
       </c>
       <c r="J10">
-        <v>0.9733490745912974</v>
+        <v>0.9733490745912983</v>
       </c>
       <c r="K10">
-        <v>0.9878698827667205</v>
+        <v>0.9878698827667212</v>
       </c>
       <c r="L10">
-        <v>0.9398897868420273</v>
+        <v>0.9398897868420274</v>
       </c>
       <c r="M10">
-        <v>0.9689118485371181</v>
+        <v>0.9689118485371185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9329245509791285</v>
+        <v>0.9329245509791282</v>
       </c>
       <c r="D11">
-        <v>0.9653076460386945</v>
+        <v>0.9653076460386942</v>
       </c>
       <c r="E11">
-        <v>0.9154615820887517</v>
+        <v>0.9154615820887519</v>
       </c>
       <c r="F11">
-        <v>0.9444389529492608</v>
+        <v>0.9444389529492609</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.019412644907607</v>
       </c>
       <c r="J11">
-        <v>0.9653808420698035</v>
+        <v>0.9653808420698033</v>
       </c>
       <c r="K11">
-        <v>0.9809148690870333</v>
+        <v>0.980914869087033</v>
       </c>
       <c r="L11">
-        <v>0.9321756284166082</v>
+        <v>0.9321756284166083</v>
       </c>
       <c r="M11">
-        <v>0.9604906665107946</v>
+        <v>0.9604906665107951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291633018637381</v>
+        <v>0.9291633018637406</v>
       </c>
       <c r="D12">
-        <v>0.9623397958228656</v>
+        <v>0.9623397958228675</v>
       </c>
       <c r="E12">
-        <v>0.9121503191214907</v>
+        <v>0.9121503191214921</v>
       </c>
       <c r="F12">
-        <v>0.9408737137557341</v>
+        <v>0.9408737137557364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017927604529811</v>
+        <v>1.017927604529812</v>
       </c>
       <c r="J12">
-        <v>0.9623006064873905</v>
+        <v>0.9623006064873926</v>
       </c>
       <c r="K12">
-        <v>0.9782259100502473</v>
+        <v>0.9782259100502493</v>
       </c>
       <c r="L12">
-        <v>0.9291791215202519</v>
+        <v>0.9291791215202535</v>
       </c>
       <c r="M12">
-        <v>0.9572286694755592</v>
+        <v>0.9572286694755611</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299771324956635</v>
+        <v>0.9299771324956622</v>
       </c>
       <c r="D13">
-        <v>0.9629818474518826</v>
+        <v>0.962981847451882</v>
       </c>
       <c r="E13">
-        <v>0.9128674160864885</v>
+        <v>0.9128674160864879</v>
       </c>
       <c r="F13">
-        <v>0.9416454101617969</v>
+        <v>0.9416454101617963</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01824909766366</v>
       </c>
       <c r="J13">
-        <v>0.9629671630918405</v>
+        <v>0.9629671630918395</v>
       </c>
       <c r="K13">
-        <v>0.9788078112956834</v>
+        <v>0.9788078112956826</v>
       </c>
       <c r="L13">
-        <v>0.9298282447818873</v>
+        <v>0.9298282447818867</v>
       </c>
       <c r="M13">
-        <v>0.957934877677488</v>
+        <v>0.9579348776774873</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9326167688945719</v>
+        <v>0.9326167688945727</v>
       </c>
       <c r="D14">
-        <v>0.9650647395406922</v>
+        <v>0.9650647395406927</v>
       </c>
       <c r="E14">
-        <v>0.9151909016972561</v>
+        <v>0.9151909016972573</v>
       </c>
       <c r="F14">
-        <v>0.9441473327475816</v>
+        <v>0.9441473327475823</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.019291201254523</v>
       </c>
       <c r="J14">
-        <v>0.9651288224110424</v>
+        <v>0.965128822411043</v>
       </c>
       <c r="K14">
-        <v>0.980694870379646</v>
+        <v>0.9806948703796464</v>
       </c>
       <c r="L14">
-        <v>0.9319307628381168</v>
+        <v>0.9319307628381177</v>
       </c>
       <c r="M14">
-        <v>0.9602239163207467</v>
+        <v>0.9602239163207477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9342230749806528</v>
+        <v>0.9342230749806538</v>
       </c>
       <c r="D15">
-        <v>0.966332554505086</v>
+        <v>0.9663325545050867</v>
       </c>
       <c r="E15">
-        <v>0.9166030271715114</v>
+        <v>0.9166030271715119</v>
       </c>
       <c r="F15">
-        <v>0.9456690511203035</v>
+        <v>0.9456690511203041</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019924858026015</v>
       </c>
       <c r="J15">
-        <v>0.9664440350207714</v>
+        <v>0.9664440350207724</v>
       </c>
       <c r="K15">
-        <v>0.9818429601677268</v>
+        <v>0.9818429601677274</v>
       </c>
       <c r="L15">
-        <v>0.933208045303718</v>
+        <v>0.9332080453037184</v>
       </c>
       <c r="M15">
-        <v>0.9616157279184706</v>
+        <v>0.9616157279184711</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432873380224069</v>
+        <v>0.9432873380224078</v>
       </c>
       <c r="D16">
-        <v>0.9734908885156737</v>
+        <v>0.9734908885156749</v>
       </c>
       <c r="E16">
-        <v>0.9245461513818893</v>
+        <v>0.9245461513818902</v>
       </c>
       <c r="F16">
-        <v>0.9542449755877922</v>
+        <v>0.9542449755877933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023493037239091</v>
+        <v>1.023493037239092</v>
       </c>
       <c r="J16">
-        <v>0.973862216422957</v>
+        <v>0.9738622164229581</v>
       </c>
       <c r="K16">
-        <v>0.9883177154483063</v>
+        <v>0.9883177154483073</v>
       </c>
       <c r="L16">
-        <v>0.9403847131596228</v>
+        <v>0.9403847131596238</v>
       </c>
       <c r="M16">
-        <v>0.9694533169676871</v>
+        <v>0.9694533169676883</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9487425468620302</v>
+        <v>0.9487425468620304</v>
       </c>
       <c r="D17">
-        <v>0.9778022405797535</v>
+        <v>0.9778022405797537</v>
       </c>
       <c r="E17">
-        <v>0.9293058020160622</v>
+        <v>0.9293058020160642</v>
       </c>
       <c r="F17">
-        <v>0.9593973466650235</v>
+        <v>0.9593973466650245</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025633898290677</v>
       </c>
       <c r="J17">
-        <v>0.9783236830015588</v>
+        <v>0.978323683001559</v>
       </c>
       <c r="K17">
-        <v>0.9922110027333632</v>
+        <v>0.9922110027333634</v>
       </c>
       <c r="L17">
-        <v>0.9446783300530303</v>
+        <v>0.9446783300530321</v>
       </c>
       <c r="M17">
-        <v>0.9741568194333035</v>
+        <v>0.9741568194333043</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9518486607006275</v>
+        <v>0.9518486607006265</v>
       </c>
       <c r="D18">
-        <v>0.9802580594530332</v>
+        <v>0.9802580594530325</v>
       </c>
       <c r="E18">
-        <v>0.9320088614902151</v>
+        <v>0.9320088614902142</v>
       </c>
       <c r="F18">
-        <v>0.9623280516340993</v>
+        <v>0.962328051634098</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026850476641513</v>
       </c>
       <c r="J18">
-        <v>0.9808628533885762</v>
+        <v>0.9808628533885753</v>
       </c>
       <c r="K18">
-        <v>0.994426493848985</v>
+        <v>0.9944264938489841</v>
       </c>
       <c r="L18">
-        <v>0.9471143613004307</v>
+        <v>0.9471143613004293</v>
       </c>
       <c r="M18">
-        <v>0.9768303588349835</v>
+        <v>0.9768303588349824</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.952895523800669</v>
+        <v>0.9528955238006648</v>
       </c>
       <c r="D19">
-        <v>0.9810859081676899</v>
+        <v>0.9810859081676865</v>
       </c>
       <c r="E19">
-        <v>0.9329187313801379</v>
+        <v>0.9329187313801346</v>
       </c>
       <c r="F19">
-        <v>0.9633153107100506</v>
+        <v>0.9633153107100465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027260095169907</v>
+        <v>1.027260095169905</v>
       </c>
       <c r="J19">
-        <v>0.9817184458174956</v>
+        <v>0.9817184458174918</v>
       </c>
       <c r="K19">
-        <v>0.9951729651181007</v>
+        <v>0.9951729651180973</v>
       </c>
       <c r="L19">
-        <v>0.9479339524123983</v>
+        <v>0.9479339524123949</v>
       </c>
       <c r="M19">
-        <v>0.9777306784575432</v>
+        <v>0.9777306784575394</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9481652477419018</v>
+        <v>0.9481652477419035</v>
       </c>
       <c r="D20">
-        <v>0.9773458828584748</v>
+        <v>0.9773458828584758</v>
       </c>
       <c r="E20">
-        <v>0.9288028524462442</v>
+        <v>0.9288028524462453</v>
       </c>
       <c r="F20">
-        <v>0.9588524111406552</v>
+        <v>0.9588524111406566</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025407590576052</v>
       </c>
       <c r="J20">
-        <v>0.9778516636176428</v>
+        <v>0.9778516636176442</v>
       </c>
       <c r="K20">
-        <v>0.9917991279168445</v>
+        <v>0.9917991279168458</v>
       </c>
       <c r="L20">
-        <v>0.9442248742488206</v>
+        <v>0.9442248742488218</v>
       </c>
       <c r="M20">
-        <v>0.9736595519137654</v>
+        <v>0.9736595519137669</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.931843695252026</v>
+        <v>0.9318436952520269</v>
       </c>
       <c r="D21">
-        <v>0.9644546550193392</v>
+        <v>0.9644546550193399</v>
       </c>
       <c r="E21">
-        <v>0.9145107989049873</v>
+        <v>0.9145107989049887</v>
       </c>
       <c r="F21">
-        <v>0.9434147577776218</v>
+        <v>0.9434147577776232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018986103239194</v>
+        <v>1.018986103239195</v>
       </c>
       <c r="J21">
-        <v>0.9644957823176318</v>
+        <v>0.9644957823176326</v>
       </c>
       <c r="K21">
-        <v>0.980142256698766</v>
+        <v>0.9801422566987666</v>
       </c>
       <c r="L21">
-        <v>0.9313154543172569</v>
+        <v>0.9313154543172584</v>
       </c>
       <c r="M21">
-        <v>0.9595537646138435</v>
+        <v>0.9595537646138446</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9207245456292459</v>
+        <v>0.9207245456292444</v>
       </c>
       <c r="D22">
-        <v>0.9556859415687619</v>
+        <v>0.9556859415687607</v>
       </c>
       <c r="E22">
-        <v>0.9046940039260527</v>
+        <v>0.9046940039260524</v>
       </c>
       <c r="F22">
-        <v>0.93286273942024</v>
+        <v>0.9328627394202388</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014588706843884</v>
       </c>
       <c r="J22">
-        <v>0.955386554868027</v>
+        <v>0.9553865548680258</v>
       </c>
       <c r="K22">
-        <v>0.9721895276958538</v>
+        <v>0.9721895276958528</v>
       </c>
       <c r="L22">
-        <v>0.9224235204273317</v>
+        <v>0.9224235204273314</v>
       </c>
       <c r="M22">
-        <v>0.9498928067588039</v>
+        <v>0.9498928067588028</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267103953032789</v>
+        <v>0.9267103953032804</v>
       </c>
       <c r="D23">
-        <v>0.9604050080477127</v>
+        <v>0.9604050080477136</v>
       </c>
       <c r="E23">
-        <v>0.9099868595800591</v>
+        <v>0.9099868595800601</v>
       </c>
       <c r="F23">
-        <v>0.9385468707427411</v>
+        <v>0.9385468707427423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016958059504736</v>
+        <v>1.016958059504737</v>
       </c>
       <c r="J23">
-        <v>0.9602913333103485</v>
+        <v>0.9602913333103497</v>
       </c>
       <c r="K23">
-        <v>0.9764717731788111</v>
+        <v>0.9764717731788121</v>
       </c>
       <c r="L23">
-        <v>0.9272201068912829</v>
+        <v>0.927220106891284</v>
       </c>
       <c r="M23">
-        <v>0.9550987984158704</v>
+        <v>0.9550987984158716</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9484263369331255</v>
+        <v>0.9484263369331258</v>
       </c>
       <c r="D24">
-        <v>0.9775522720305511</v>
+        <v>0.9775522720305513</v>
       </c>
       <c r="E24">
-        <v>0.9290303381064767</v>
+        <v>0.9290303381064773</v>
       </c>
       <c r="F24">
-        <v>0.9590988728167282</v>
+        <v>0.9590988728167287</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025509947944371</v>
       </c>
       <c r="J24">
-        <v>0.9780651425206605</v>
+        <v>0.9780651425206609</v>
       </c>
       <c r="K24">
-        <v>0.9919854063752696</v>
+        <v>0.9919854063752698</v>
       </c>
       <c r="L24">
-        <v>0.9444299810907338</v>
+        <v>0.9444299810907343</v>
       </c>
       <c r="M24">
-        <v>0.9738844602110485</v>
+        <v>0.973884460211049</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9706870707431688</v>
+        <v>0.9706870707431697</v>
       </c>
       <c r="D25">
-        <v>0.9951660548578019</v>
+        <v>0.9951660548578026</v>
       </c>
       <c r="E25">
-        <v>0.9482922693790184</v>
+        <v>0.9482922693790189</v>
       </c>
       <c r="F25">
-        <v>0.9800565227235157</v>
+        <v>0.9800565227235163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034186846663213</v>
+        <v>1.034186846663214</v>
       </c>
       <c r="J25">
-        <v>0.9962428681541283</v>
+        <v>0.996242868154129</v>
       </c>
       <c r="K25">
         <v>1.007839877970474</v>
       </c>
       <c r="L25">
-        <v>0.961750077929452</v>
+        <v>0.9617500779294524</v>
       </c>
       <c r="M25">
-        <v>0.9929725317187863</v>
+        <v>0.9929725317187866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9866867269113834</v>
+        <v>0.986686726911383</v>
       </c>
       <c r="D2">
-        <v>1.007841866470412</v>
+        <v>1.007841866470411</v>
       </c>
       <c r="E2">
-        <v>0.9619681962278255</v>
+        <v>0.961968196227825</v>
       </c>
       <c r="F2">
-        <v>0.9950508777951306</v>
+        <v>0.9950508777951302</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>1.019193022106886</v>
       </c>
       <c r="L2">
-        <v>0.9739840947423981</v>
+        <v>0.9739840947423976</v>
       </c>
       <c r="M2">
         <v>1.006579595098882</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974978264039128</v>
+        <v>0.997497826403914</v>
       </c>
       <c r="D3">
-        <v>1.016411610147958</v>
+        <v>1.016411610147959</v>
       </c>
       <c r="E3">
-        <v>0.9711246250495528</v>
+        <v>0.9711246250495537</v>
       </c>
       <c r="F3">
-        <v>1.005149199020964</v>
+        <v>1.005149199020965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044472422076145</v>
+        <v>1.044472422076146</v>
       </c>
       <c r="J3">
-        <v>1.018056936394037</v>
+        <v>1.018056936394039</v>
       </c>
       <c r="K3">
-        <v>1.026838720990718</v>
+        <v>1.026838720990719</v>
       </c>
       <c r="L3">
-        <v>0.9821408084235335</v>
+        <v>0.9821408084235344</v>
       </c>
       <c r="M3">
-        <v>1.01571661613376</v>
+        <v>1.015716616133762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.021704235500926</v>
       </c>
       <c r="E4">
-        <v>0.9767426749300706</v>
+        <v>0.9767426749300709</v>
       </c>
       <c r="F4">
         <v>1.01137084096136</v>
@@ -521,7 +521,7 @@
         <v>1.031547580888222</v>
       </c>
       <c r="L4">
-        <v>0.9871301437190365</v>
+        <v>0.9871301437190366</v>
       </c>
       <c r="M4">
         <v>1.021333940052482</v>
@@ -541,10 +541,10 @@
         <v>1.02387389450791</v>
       </c>
       <c r="E5">
-        <v>0.9790374274702677</v>
+        <v>0.9790374274702683</v>
       </c>
       <c r="F5">
-        <v>1.013918105592403</v>
+        <v>1.013918105592404</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.048028065782712</v>
       </c>
       <c r="J5">
-        <v>1.025688201832659</v>
+        <v>1.02568820183266</v>
       </c>
       <c r="K5">
-        <v>1.033474877170023</v>
+        <v>1.033474877170024</v>
       </c>
       <c r="L5">
-        <v>0.9891644736064106</v>
+        <v>0.9891644736064115</v>
       </c>
       <c r="M5">
-        <v>1.023630941530876</v>
+        <v>1.023630941530877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007365750712832</v>
+        <v>1.007365750712829</v>
       </c>
       <c r="D6">
-        <v>1.024235078540638</v>
+        <v>1.024235078540635</v>
       </c>
       <c r="E6">
-        <v>0.9794189611493592</v>
+        <v>0.9794189611493581</v>
       </c>
       <c r="F6">
-        <v>1.014341969202466</v>
+        <v>1.014341969202464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04819930349233</v>
+        <v>1.048199303492328</v>
       </c>
       <c r="J6">
-        <v>1.026057139167206</v>
+        <v>1.026057139167203</v>
       </c>
       <c r="K6">
-        <v>1.033795537470576</v>
+        <v>1.033795537470573</v>
       </c>
       <c r="L6">
-        <v>0.9895024970564184</v>
+        <v>0.9895024970564171</v>
       </c>
       <c r="M6">
-        <v>1.024012995401471</v>
+        <v>1.024012995401469</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004210421168507</v>
+        <v>1.004210421168506</v>
       </c>
       <c r="D7">
-        <v>1.021733437908324</v>
+        <v>1.021733437908322</v>
       </c>
       <c r="E7">
-        <v>0.9767735933618141</v>
+        <v>0.9767735933618137</v>
       </c>
       <c r="F7">
-        <v>1.011405138124415</v>
+        <v>1.011405138124414</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04701160071455</v>
       </c>
       <c r="J7">
-        <v>1.023500982231421</v>
+        <v>1.02350098223142</v>
       </c>
       <c r="K7">
-        <v>1.031573533250834</v>
+        <v>1.031573533250833</v>
       </c>
       <c r="L7">
         <v>0.9871575676491117</v>
       </c>
       <c r="M7">
-        <v>1.021364878830209</v>
+        <v>1.021364878830208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990410920139976</v>
+        <v>0.990410920139974</v>
       </c>
       <c r="D8">
-        <v>1.010793665817566</v>
+        <v>1.010793665817564</v>
       </c>
       <c r="E8">
-        <v>0.9651303199452643</v>
+        <v>0.9651303199452642</v>
       </c>
       <c r="F8">
-        <v>0.9985326410911416</v>
+        <v>0.9985326410911408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041774607550856</v>
+        <v>1.041774607550855</v>
       </c>
       <c r="J8">
-        <v>1.01230098562735</v>
+        <v>1.012300985627349</v>
       </c>
       <c r="K8">
-        <v>1.021829388349521</v>
+        <v>1.021829388349519</v>
       </c>
       <c r="L8">
-        <v>0.9768042986681081</v>
+        <v>0.976804298668108</v>
       </c>
       <c r="M8">
-        <v>1.009732525440626</v>
+        <v>1.009732525440625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632827618196622</v>
+        <v>0.9632827618196637</v>
       </c>
       <c r="D9">
-        <v>0.9893040074723246</v>
+        <v>0.9893040074723258</v>
       </c>
       <c r="E9">
-        <v>0.9419150271540921</v>
+        <v>0.9419150271540927</v>
       </c>
       <c r="F9">
-        <v>0.9730979080618035</v>
+        <v>0.9730979080618049</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031312524126605</v>
+        <v>1.031312524126606</v>
       </c>
       <c r="J9">
-        <v>0.9902022238120783</v>
+        <v>0.9902022238120797</v>
       </c>
       <c r="K9">
-        <v>1.002573036635134</v>
+        <v>1.002573036635135</v>
       </c>
       <c r="L9">
-        <v>0.956026465048191</v>
+        <v>0.9560264650481917</v>
       </c>
       <c r="M9">
-        <v>0.9866430728748373</v>
+        <v>0.9866430728748385</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9426600877324142</v>
+        <v>0.9426600877324133</v>
       </c>
       <c r="D10">
-        <v>0.9729953102141002</v>
+        <v>0.9729953102140997</v>
       </c>
       <c r="E10">
         <v>0.923997873898404</v>
       </c>
       <c r="F10">
-        <v>0.9536521174960672</v>
+        <v>0.9536521174960668</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023246547017525</v>
+        <v>1.023246547017524</v>
       </c>
       <c r="J10">
-        <v>0.9733490745912983</v>
+        <v>0.9733490745912974</v>
       </c>
       <c r="K10">
-        <v>0.9878698827667212</v>
+        <v>0.9878698827667205</v>
       </c>
       <c r="L10">
-        <v>0.9398897868420274</v>
+        <v>0.9398897868420273</v>
       </c>
       <c r="M10">
-        <v>0.9689118485371185</v>
+        <v>0.9689118485371181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9329245509791282</v>
+        <v>0.9329245509791285</v>
       </c>
       <c r="D11">
-        <v>0.9653076460386942</v>
+        <v>0.9653076460386945</v>
       </c>
       <c r="E11">
-        <v>0.9154615820887519</v>
+        <v>0.9154615820887517</v>
       </c>
       <c r="F11">
-        <v>0.9444389529492609</v>
+        <v>0.9444389529492608</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.019412644907607</v>
       </c>
       <c r="J11">
-        <v>0.9653808420698033</v>
+        <v>0.9653808420698035</v>
       </c>
       <c r="K11">
-        <v>0.980914869087033</v>
+        <v>0.9809148690870333</v>
       </c>
       <c r="L11">
-        <v>0.9321756284166083</v>
+        <v>0.9321756284166082</v>
       </c>
       <c r="M11">
-        <v>0.9604906665107951</v>
+        <v>0.9604906665107946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291633018637406</v>
+        <v>0.9291633018637381</v>
       </c>
       <c r="D12">
-        <v>0.9623397958228675</v>
+        <v>0.9623397958228656</v>
       </c>
       <c r="E12">
-        <v>0.9121503191214921</v>
+        <v>0.9121503191214907</v>
       </c>
       <c r="F12">
-        <v>0.9408737137557364</v>
+        <v>0.9408737137557341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017927604529812</v>
+        <v>1.017927604529811</v>
       </c>
       <c r="J12">
-        <v>0.9623006064873926</v>
+        <v>0.9623006064873905</v>
       </c>
       <c r="K12">
-        <v>0.9782259100502493</v>
+        <v>0.9782259100502473</v>
       </c>
       <c r="L12">
-        <v>0.9291791215202535</v>
+        <v>0.9291791215202519</v>
       </c>
       <c r="M12">
-        <v>0.9572286694755611</v>
+        <v>0.9572286694755592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299771324956622</v>
+        <v>0.9299771324956635</v>
       </c>
       <c r="D13">
-        <v>0.962981847451882</v>
+        <v>0.9629818474518826</v>
       </c>
       <c r="E13">
-        <v>0.9128674160864879</v>
+        <v>0.9128674160864885</v>
       </c>
       <c r="F13">
-        <v>0.9416454101617963</v>
+        <v>0.9416454101617969</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.01824909766366</v>
       </c>
       <c r="J13">
-        <v>0.9629671630918395</v>
+        <v>0.9629671630918405</v>
       </c>
       <c r="K13">
-        <v>0.9788078112956826</v>
+        <v>0.9788078112956834</v>
       </c>
       <c r="L13">
-        <v>0.9298282447818867</v>
+        <v>0.9298282447818873</v>
       </c>
       <c r="M13">
-        <v>0.9579348776774873</v>
+        <v>0.957934877677488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9326167688945727</v>
+        <v>0.9326167688945719</v>
       </c>
       <c r="D14">
-        <v>0.9650647395406927</v>
+        <v>0.9650647395406922</v>
       </c>
       <c r="E14">
-        <v>0.9151909016972573</v>
+        <v>0.9151909016972561</v>
       </c>
       <c r="F14">
-        <v>0.9441473327475823</v>
+        <v>0.9441473327475816</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.019291201254523</v>
       </c>
       <c r="J14">
-        <v>0.965128822411043</v>
+        <v>0.9651288224110424</v>
       </c>
       <c r="K14">
-        <v>0.9806948703796464</v>
+        <v>0.980694870379646</v>
       </c>
       <c r="L14">
-        <v>0.9319307628381177</v>
+        <v>0.9319307628381168</v>
       </c>
       <c r="M14">
-        <v>0.9602239163207477</v>
+        <v>0.9602239163207467</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9342230749806538</v>
+        <v>0.9342230749806528</v>
       </c>
       <c r="D15">
-        <v>0.9663325545050867</v>
+        <v>0.966332554505086</v>
       </c>
       <c r="E15">
-        <v>0.9166030271715119</v>
+        <v>0.9166030271715114</v>
       </c>
       <c r="F15">
-        <v>0.9456690511203041</v>
+        <v>0.9456690511203035</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019924858026015</v>
       </c>
       <c r="J15">
-        <v>0.9664440350207724</v>
+        <v>0.9664440350207714</v>
       </c>
       <c r="K15">
-        <v>0.9818429601677274</v>
+        <v>0.9818429601677268</v>
       </c>
       <c r="L15">
-        <v>0.9332080453037184</v>
+        <v>0.933208045303718</v>
       </c>
       <c r="M15">
-        <v>0.9616157279184711</v>
+        <v>0.9616157279184706</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432873380224078</v>
+        <v>0.9432873380224069</v>
       </c>
       <c r="D16">
-        <v>0.9734908885156749</v>
+        <v>0.9734908885156737</v>
       </c>
       <c r="E16">
-        <v>0.9245461513818902</v>
+        <v>0.9245461513818893</v>
       </c>
       <c r="F16">
-        <v>0.9542449755877933</v>
+        <v>0.9542449755877922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023493037239092</v>
+        <v>1.023493037239091</v>
       </c>
       <c r="J16">
-        <v>0.9738622164229581</v>
+        <v>0.973862216422957</v>
       </c>
       <c r="K16">
-        <v>0.9883177154483073</v>
+        <v>0.9883177154483063</v>
       </c>
       <c r="L16">
-        <v>0.9403847131596238</v>
+        <v>0.9403847131596228</v>
       </c>
       <c r="M16">
-        <v>0.9694533169676883</v>
+        <v>0.9694533169676871</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9487425468620304</v>
+        <v>0.9487425468620302</v>
       </c>
       <c r="D17">
-        <v>0.9778022405797537</v>
+        <v>0.9778022405797535</v>
       </c>
       <c r="E17">
-        <v>0.9293058020160642</v>
+        <v>0.9293058020160622</v>
       </c>
       <c r="F17">
-        <v>0.9593973466650245</v>
+        <v>0.9593973466650235</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025633898290677</v>
       </c>
       <c r="J17">
-        <v>0.978323683001559</v>
+        <v>0.9783236830015588</v>
       </c>
       <c r="K17">
-        <v>0.9922110027333634</v>
+        <v>0.9922110027333632</v>
       </c>
       <c r="L17">
-        <v>0.9446783300530321</v>
+        <v>0.9446783300530303</v>
       </c>
       <c r="M17">
-        <v>0.9741568194333043</v>
+        <v>0.9741568194333035</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9518486607006265</v>
+        <v>0.9518486607006275</v>
       </c>
       <c r="D18">
-        <v>0.9802580594530325</v>
+        <v>0.9802580594530332</v>
       </c>
       <c r="E18">
-        <v>0.9320088614902142</v>
+        <v>0.9320088614902151</v>
       </c>
       <c r="F18">
-        <v>0.962328051634098</v>
+        <v>0.9623280516340993</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026850476641513</v>
       </c>
       <c r="J18">
-        <v>0.9808628533885753</v>
+        <v>0.9808628533885762</v>
       </c>
       <c r="K18">
-        <v>0.9944264938489841</v>
+        <v>0.994426493848985</v>
       </c>
       <c r="L18">
-        <v>0.9471143613004293</v>
+        <v>0.9471143613004307</v>
       </c>
       <c r="M18">
-        <v>0.9768303588349824</v>
+        <v>0.9768303588349835</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9528955238006648</v>
+        <v>0.952895523800669</v>
       </c>
       <c r="D19">
-        <v>0.9810859081676865</v>
+        <v>0.9810859081676899</v>
       </c>
       <c r="E19">
-        <v>0.9329187313801346</v>
+        <v>0.9329187313801379</v>
       </c>
       <c r="F19">
-        <v>0.9633153107100465</v>
+        <v>0.9633153107100506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027260095169905</v>
+        <v>1.027260095169907</v>
       </c>
       <c r="J19">
-        <v>0.9817184458174918</v>
+        <v>0.9817184458174956</v>
       </c>
       <c r="K19">
-        <v>0.9951729651180973</v>
+        <v>0.9951729651181007</v>
       </c>
       <c r="L19">
-        <v>0.9479339524123949</v>
+        <v>0.9479339524123983</v>
       </c>
       <c r="M19">
-        <v>0.9777306784575394</v>
+        <v>0.9777306784575432</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9481652477419035</v>
+        <v>0.9481652477419018</v>
       </c>
       <c r="D20">
-        <v>0.9773458828584758</v>
+        <v>0.9773458828584748</v>
       </c>
       <c r="E20">
-        <v>0.9288028524462453</v>
+        <v>0.9288028524462442</v>
       </c>
       <c r="F20">
-        <v>0.9588524111406566</v>
+        <v>0.9588524111406552</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025407590576052</v>
       </c>
       <c r="J20">
-        <v>0.9778516636176442</v>
+        <v>0.9778516636176428</v>
       </c>
       <c r="K20">
-        <v>0.9917991279168458</v>
+        <v>0.9917991279168445</v>
       </c>
       <c r="L20">
-        <v>0.9442248742488218</v>
+        <v>0.9442248742488206</v>
       </c>
       <c r="M20">
-        <v>0.9736595519137669</v>
+        <v>0.9736595519137654</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9318436952520269</v>
+        <v>0.931843695252026</v>
       </c>
       <c r="D21">
-        <v>0.9644546550193399</v>
+        <v>0.9644546550193392</v>
       </c>
       <c r="E21">
-        <v>0.9145107989049887</v>
+        <v>0.9145107989049873</v>
       </c>
       <c r="F21">
-        <v>0.9434147577776232</v>
+        <v>0.9434147577776218</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018986103239195</v>
+        <v>1.018986103239194</v>
       </c>
       <c r="J21">
-        <v>0.9644957823176326</v>
+        <v>0.9644957823176318</v>
       </c>
       <c r="K21">
-        <v>0.9801422566987666</v>
+        <v>0.980142256698766</v>
       </c>
       <c r="L21">
-        <v>0.9313154543172584</v>
+        <v>0.9313154543172569</v>
       </c>
       <c r="M21">
-        <v>0.9595537646138446</v>
+        <v>0.9595537646138435</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9207245456292444</v>
+        <v>0.9207245456292459</v>
       </c>
       <c r="D22">
-        <v>0.9556859415687607</v>
+        <v>0.9556859415687619</v>
       </c>
       <c r="E22">
-        <v>0.9046940039260524</v>
+        <v>0.9046940039260527</v>
       </c>
       <c r="F22">
-        <v>0.9328627394202388</v>
+        <v>0.93286273942024</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014588706843884</v>
       </c>
       <c r="J22">
-        <v>0.9553865548680258</v>
+        <v>0.955386554868027</v>
       </c>
       <c r="K22">
-        <v>0.9721895276958528</v>
+        <v>0.9721895276958538</v>
       </c>
       <c r="L22">
-        <v>0.9224235204273314</v>
+        <v>0.9224235204273317</v>
       </c>
       <c r="M22">
-        <v>0.9498928067588028</v>
+        <v>0.9498928067588039</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267103953032804</v>
+        <v>0.9267103953032789</v>
       </c>
       <c r="D23">
-        <v>0.9604050080477136</v>
+        <v>0.9604050080477127</v>
       </c>
       <c r="E23">
-        <v>0.9099868595800601</v>
+        <v>0.9099868595800591</v>
       </c>
       <c r="F23">
-        <v>0.9385468707427423</v>
+        <v>0.9385468707427411</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016958059504737</v>
+        <v>1.016958059504736</v>
       </c>
       <c r="J23">
-        <v>0.9602913333103497</v>
+        <v>0.9602913333103485</v>
       </c>
       <c r="K23">
-        <v>0.9764717731788121</v>
+        <v>0.9764717731788111</v>
       </c>
       <c r="L23">
-        <v>0.927220106891284</v>
+        <v>0.9272201068912829</v>
       </c>
       <c r="M23">
-        <v>0.9550987984158716</v>
+        <v>0.9550987984158704</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9484263369331258</v>
+        <v>0.9484263369331255</v>
       </c>
       <c r="D24">
-        <v>0.9775522720305513</v>
+        <v>0.9775522720305511</v>
       </c>
       <c r="E24">
-        <v>0.9290303381064773</v>
+        <v>0.9290303381064767</v>
       </c>
       <c r="F24">
-        <v>0.9590988728167287</v>
+        <v>0.9590988728167282</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025509947944371</v>
       </c>
       <c r="J24">
-        <v>0.9780651425206609</v>
+        <v>0.9780651425206605</v>
       </c>
       <c r="K24">
-        <v>0.9919854063752698</v>
+        <v>0.9919854063752696</v>
       </c>
       <c r="L24">
-        <v>0.9444299810907343</v>
+        <v>0.9444299810907338</v>
       </c>
       <c r="M24">
-        <v>0.973884460211049</v>
+        <v>0.9738844602110485</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9706870707431697</v>
+        <v>0.9706870707431688</v>
       </c>
       <c r="D25">
-        <v>0.9951660548578026</v>
+        <v>0.9951660548578019</v>
       </c>
       <c r="E25">
-        <v>0.9482922693790189</v>
+        <v>0.9482922693790184</v>
       </c>
       <c r="F25">
-        <v>0.9800565227235163</v>
+        <v>0.9800565227235157</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034186846663214</v>
+        <v>1.034186846663213</v>
       </c>
       <c r="J25">
-        <v>0.996242868154129</v>
+        <v>0.9962428681541283</v>
       </c>
       <c r="K25">
         <v>1.007839877970474</v>
       </c>
       <c r="L25">
-        <v>0.9617500779294524</v>
+        <v>0.961750077929452</v>
       </c>
       <c r="M25">
-        <v>0.9929725317187866</v>
+        <v>0.9929725317187863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986686726911383</v>
+        <v>0.990227364148019</v>
       </c>
       <c r="D2">
-        <v>1.007841866470411</v>
+        <v>1.010663173734898</v>
       </c>
       <c r="E2">
-        <v>0.961968196227825</v>
+        <v>0.9631004037940504</v>
       </c>
       <c r="F2">
-        <v>0.9950508777951302</v>
+        <v>0.9975384171817978</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040350419923425</v>
+        <v>1.041837815505143</v>
       </c>
       <c r="J2">
-        <v>1.009273060457129</v>
+        <v>1.012704354448267</v>
       </c>
       <c r="K2">
-        <v>1.019193022106886</v>
+        <v>1.021975925891104</v>
       </c>
       <c r="L2">
-        <v>0.9739840947423976</v>
+        <v>0.9750989236785589</v>
       </c>
       <c r="M2">
-        <v>1.006579595098882</v>
+        <v>1.009032152626065</v>
+      </c>
+      <c r="N2">
+        <v>1.014142510790397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997497826403914</v>
+        <v>1.001001414785884</v>
       </c>
       <c r="D3">
-        <v>1.016411610147959</v>
+        <v>1.019207262036295</v>
       </c>
       <c r="E3">
-        <v>0.9711246250495537</v>
+        <v>0.9722291868462838</v>
       </c>
       <c r="F3">
-        <v>1.005149199020965</v>
+        <v>1.007603432561711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044472422076146</v>
+        <v>1.045947680312537</v>
       </c>
       <c r="J3">
-        <v>1.018056936394039</v>
+        <v>1.021464817401735</v>
       </c>
       <c r="K3">
-        <v>1.026838720990719</v>
+        <v>1.029600142127073</v>
       </c>
       <c r="L3">
-        <v>0.9821408084235344</v>
+        <v>0.9832301803404619</v>
       </c>
       <c r="M3">
-        <v>1.015716616133762</v>
+        <v>1.018139941732505</v>
+      </c>
+      <c r="N3">
+        <v>1.022915414606098</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004173588073881</v>
+        <v>1.007656505654993</v>
       </c>
       <c r="D4">
-        <v>1.021704235500926</v>
+        <v>1.02448569619834</v>
       </c>
       <c r="E4">
-        <v>0.9767426749300709</v>
+        <v>0.9778319576957822</v>
       </c>
       <c r="F4">
-        <v>1.01137084096136</v>
+        <v>1.013806558560219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046997713465621</v>
+        <v>1.04846638888273</v>
       </c>
       <c r="J4">
-        <v>1.023471132237941</v>
+        <v>1.026866364512199</v>
       </c>
       <c r="K4">
-        <v>1.031547580888222</v>
+        <v>1.034297316209176</v>
       </c>
       <c r="L4">
-        <v>0.9871301437190366</v>
+        <v>0.9882055054485098</v>
       </c>
       <c r="M4">
-        <v>1.021333940052482</v>
+        <v>1.023741158185351</v>
+      </c>
+      <c r="N4">
+        <v>1.028324632533024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00691018631147</v>
+        <v>1.010385095793298</v>
       </c>
       <c r="D5">
-        <v>1.02387389450791</v>
+        <v>1.026649887066156</v>
       </c>
       <c r="E5">
-        <v>0.9790374274702683</v>
+        <v>0.9801208221423973</v>
       </c>
       <c r="F5">
-        <v>1.013918105592404</v>
+        <v>1.016346664316858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048028065782712</v>
+        <v>1.049494236859177</v>
       </c>
       <c r="J5">
-        <v>1.02568820183266</v>
+        <v>1.029078631595273</v>
       </c>
       <c r="K5">
-        <v>1.033474877170024</v>
+        <v>1.036220156894908</v>
       </c>
       <c r="L5">
-        <v>0.9891644736064115</v>
+        <v>0.9902344508369122</v>
       </c>
       <c r="M5">
-        <v>1.023630941530877</v>
+        <v>1.026031966384559</v>
+      </c>
+      <c r="N5">
+        <v>1.030540041289107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007365750712829</v>
+        <v>1.010839352835138</v>
       </c>
       <c r="D6">
-        <v>1.024235078540635</v>
+        <v>1.02701018016866</v>
       </c>
       <c r="E6">
-        <v>0.9794189611493581</v>
+        <v>0.980501396316769</v>
       </c>
       <c r="F6">
-        <v>1.014341969202464</v>
+        <v>1.01676936002324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048199303492328</v>
+        <v>1.049665068465497</v>
       </c>
       <c r="J6">
-        <v>1.026057139167203</v>
+        <v>1.029446790652518</v>
       </c>
       <c r="K6">
-        <v>1.033795537470573</v>
+        <v>1.036540094038911</v>
       </c>
       <c r="L6">
-        <v>0.9895024970564171</v>
+        <v>0.9905715977259267</v>
       </c>
       <c r="M6">
-        <v>1.024012995401469</v>
+        <v>1.026413011919349</v>
+      </c>
+      <c r="N6">
+        <v>1.030908723174442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004210421168506</v>
+        <v>1.007693229192772</v>
       </c>
       <c r="D7">
-        <v>1.021733437908322</v>
+        <v>1.024514823676446</v>
       </c>
       <c r="E7">
-        <v>0.9767735933618137</v>
+        <v>0.977862795451742</v>
       </c>
       <c r="F7">
-        <v>1.011405138124414</v>
+        <v>1.013840757727736</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04701160071455</v>
+        <v>1.048480241682931</v>
       </c>
       <c r="J7">
-        <v>1.02350098223142</v>
+        <v>1.026896148408426</v>
       </c>
       <c r="K7">
-        <v>1.031573533250833</v>
+        <v>1.034323207325173</v>
       </c>
       <c r="L7">
-        <v>0.9871575676491117</v>
+        <v>0.9882328555427147</v>
       </c>
       <c r="M7">
-        <v>1.021364878830208</v>
+        <v>1.02377201204539</v>
+      </c>
+      <c r="N7">
+        <v>1.028354458725801</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.990410920139974</v>
+        <v>0.9939382797032391</v>
       </c>
       <c r="D8">
-        <v>1.010793665817564</v>
+        <v>1.013605750641228</v>
       </c>
       <c r="E8">
-        <v>0.9651303199452642</v>
+        <v>0.9662525836418441</v>
       </c>
       <c r="F8">
-        <v>0.9985326410911408</v>
+        <v>1.001008227830804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041774607550855</v>
+        <v>1.043257610394672</v>
       </c>
       <c r="J8">
-        <v>1.012300985627349</v>
+        <v>1.015723792821349</v>
       </c>
       <c r="K8">
-        <v>1.021829388349519</v>
+        <v>1.024604524112018</v>
       </c>
       <c r="L8">
-        <v>0.976804298668108</v>
+        <v>0.9779099576625576</v>
       </c>
       <c r="M8">
-        <v>1.009732525440625</v>
+        <v>1.012174559328302</v>
+      </c>
+      <c r="N8">
+        <v>1.017166237112303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632827618196637</v>
+        <v>0.966920424190291</v>
       </c>
       <c r="D9">
-        <v>0.9893040074723258</v>
+        <v>0.9921933814108677</v>
       </c>
       <c r="E9">
-        <v>0.9419150271540927</v>
+        <v>0.9431209719041381</v>
       </c>
       <c r="F9">
-        <v>0.9730979080618049</v>
+        <v>0.9756732735549817</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031312524126606</v>
+        <v>1.032833042100864</v>
       </c>
       <c r="J9">
-        <v>0.9902022238120797</v>
+        <v>0.9936979306630451</v>
       </c>
       <c r="K9">
-        <v>1.002573036635135</v>
+        <v>1.005414398225371</v>
       </c>
       <c r="L9">
-        <v>0.9560264650481917</v>
+        <v>0.9572096004992396</v>
       </c>
       <c r="M9">
-        <v>0.9866430728748385</v>
+        <v>0.9891737636910082</v>
+      </c>
+      <c r="N9">
+        <v>0.9951090957033322</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9426600877324133</v>
+        <v>0.9464057461388474</v>
       </c>
       <c r="D10">
-        <v>0.9729953102140997</v>
+        <v>0.9759613562546348</v>
       </c>
       <c r="E10">
-        <v>0.923997873898404</v>
+        <v>0.9252878285744108</v>
       </c>
       <c r="F10">
-        <v>0.9536521174960668</v>
+        <v>0.9563261085952278</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023246547017524</v>
+        <v>1.024805282189432</v>
       </c>
       <c r="J10">
-        <v>0.9733490745912974</v>
+        <v>0.9769198362076732</v>
       </c>
       <c r="K10">
-        <v>0.9878698827667205</v>
+        <v>0.9907786371324275</v>
       </c>
       <c r="L10">
-        <v>0.9398897868420273</v>
+        <v>0.9411511196654764</v>
       </c>
       <c r="M10">
-        <v>0.9689118485371181</v>
+        <v>0.971531372681864</v>
+      </c>
+      <c r="N10">
+        <v>0.9783071744293593</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9329245509791285</v>
+        <v>0.9367299734027061</v>
       </c>
       <c r="D11">
-        <v>0.9653076460386945</v>
+        <v>0.9683163910619985</v>
       </c>
       <c r="E11">
-        <v>0.9154615820887517</v>
+        <v>0.9167988100481215</v>
       </c>
       <c r="F11">
-        <v>0.9444389529492608</v>
+        <v>0.9471678752345831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019412644907607</v>
+        <v>1.02099291624258</v>
       </c>
       <c r="J11">
-        <v>0.9653808420698035</v>
+        <v>0.9689941632817918</v>
       </c>
       <c r="K11">
-        <v>0.9809148690870333</v>
+        <v>0.9838616139543558</v>
       </c>
       <c r="L11">
-        <v>0.9321756284166082</v>
+        <v>0.9334810552857616</v>
       </c>
       <c r="M11">
-        <v>0.9604906665107946</v>
+        <v>0.9631599858945759</v>
+      </c>
+      <c r="N11">
+        <v>0.9703702461388362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291633018637381</v>
+        <v>0.9329935255654959</v>
       </c>
       <c r="D12">
-        <v>0.9623397958228656</v>
+        <v>0.9653663047870537</v>
       </c>
       <c r="E12">
-        <v>0.9121503191214907</v>
+        <v>0.9135073194301652</v>
       </c>
       <c r="F12">
-        <v>0.9408737137557341</v>
+        <v>0.9436255016887313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017927604529811</v>
+        <v>1.019516875297022</v>
       </c>
       <c r="J12">
-        <v>0.9623006064873905</v>
+        <v>0.9659317593261427</v>
       </c>
       <c r="K12">
-        <v>0.9782259100502473</v>
+        <v>0.9811885349074194</v>
       </c>
       <c r="L12">
-        <v>0.9291791215202519</v>
+        <v>0.9305030036347376</v>
       </c>
       <c r="M12">
-        <v>0.9572286694755592</v>
+        <v>0.9599187676555763</v>
+      </c>
+      <c r="N12">
+        <v>0.9673034932183073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299771324956635</v>
+        <v>0.9338019048534202</v>
       </c>
       <c r="D13">
-        <v>0.9629818474518826</v>
+        <v>0.9660044498282981</v>
       </c>
       <c r="E13">
-        <v>0.9128674160864885</v>
+        <v>0.9142200627961913</v>
       </c>
       <c r="F13">
-        <v>0.9416454101617969</v>
+        <v>0.9443921687507391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01824909766366</v>
+        <v>1.019836387497947</v>
       </c>
       <c r="J13">
-        <v>0.9629671630918405</v>
+        <v>0.9665943886631986</v>
       </c>
       <c r="K13">
-        <v>0.9788078112956834</v>
+        <v>0.9817669404362259</v>
       </c>
       <c r="L13">
-        <v>0.9298282447818873</v>
+        <v>0.9311480627668827</v>
       </c>
       <c r="M13">
-        <v>0.957934877677488</v>
+        <v>0.9606204031912571</v>
+      </c>
+      <c r="N13">
+        <v>0.9679670635650264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9326167688945719</v>
+        <v>0.9364241835211949</v>
       </c>
       <c r="D14">
-        <v>0.9650647395406922</v>
+        <v>0.9680749105801095</v>
       </c>
       <c r="E14">
-        <v>0.9151909016972561</v>
+        <v>0.9165297146071021</v>
       </c>
       <c r="F14">
-        <v>0.9441473327475816</v>
+        <v>0.9468780902599261</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019291201254523</v>
+        <v>1.020872194232122</v>
       </c>
       <c r="J14">
-        <v>0.9651288224110424</v>
+        <v>0.9687435725320802</v>
       </c>
       <c r="K14">
-        <v>0.980694870379646</v>
+        <v>0.9836428885173621</v>
       </c>
       <c r="L14">
-        <v>0.9319307628381168</v>
+        <v>0.9332376688388672</v>
       </c>
       <c r="M14">
-        <v>0.9602239163207467</v>
+        <v>0.9628949024148439</v>
+      </c>
+      <c r="N14">
+        <v>0.9701192995215167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9342230749806528</v>
+        <v>0.9380201640371297</v>
       </c>
       <c r="D15">
-        <v>0.966332554505086</v>
+        <v>0.9693353362801659</v>
       </c>
       <c r="E15">
-        <v>0.9166030271715114</v>
+        <v>0.9179336315896751</v>
       </c>
       <c r="F15">
-        <v>0.9456690511203035</v>
+        <v>0.9483902995166559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019924858026015</v>
+        <v>1.021502113196466</v>
       </c>
       <c r="J15">
-        <v>0.9664440350207714</v>
+        <v>0.9700513858675557</v>
       </c>
       <c r="K15">
-        <v>0.9818429601677268</v>
+        <v>0.984784383495788</v>
       </c>
       <c r="L15">
-        <v>0.933208045303718</v>
+        <v>0.9345072913357754</v>
       </c>
       <c r="M15">
-        <v>0.9616157279184706</v>
+        <v>0.9642780800693279</v>
+      </c>
+      <c r="N15">
+        <v>0.9714289701019369</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432873380224069</v>
+        <v>0.9470293533348292</v>
       </c>
       <c r="D16">
-        <v>0.9734908885156737</v>
+        <v>0.9764543370983876</v>
       </c>
       <c r="E16">
-        <v>0.9245461513818893</v>
+        <v>0.925833241807012</v>
       </c>
       <c r="F16">
-        <v>0.9542449755877922</v>
+        <v>0.9569156260635823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023493037239091</v>
+        <v>1.025050467238152</v>
       </c>
       <c r="J16">
-        <v>0.973862216422957</v>
+        <v>0.9774304042960968</v>
       </c>
       <c r="K16">
-        <v>0.9883177154483063</v>
+        <v>0.991224167901732</v>
       </c>
       <c r="L16">
-        <v>0.9403847131596228</v>
+        <v>0.9416433760069012</v>
       </c>
       <c r="M16">
-        <v>0.9694533169676871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.972069819084348</v>
+      </c>
+      <c r="N16">
+        <v>0.9788184675830317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9487425468620302</v>
+        <v>0.9524538755214035</v>
       </c>
       <c r="D17">
-        <v>0.9778022405797535</v>
+        <v>0.9807438376268162</v>
       </c>
       <c r="E17">
-        <v>0.9293058020160622</v>
+        <v>0.9305688479312995</v>
       </c>
       <c r="F17">
-        <v>0.9593973466650235</v>
+        <v>0.9620398951049179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025633898290677</v>
+        <v>1.027180373879142</v>
       </c>
       <c r="J17">
-        <v>0.9783236830015588</v>
+        <v>0.9818702964678289</v>
       </c>
       <c r="K17">
-        <v>0.9922110027333632</v>
+        <v>0.9950981366945214</v>
       </c>
       <c r="L17">
-        <v>0.9446783300530303</v>
+        <v>0.9459145883416412</v>
       </c>
       <c r="M17">
-        <v>0.9741568194333035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9767479318820433</v>
+      </c>
+      <c r="N17">
+        <v>0.9832646649109106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9518486607006275</v>
+        <v>0.9555432899144345</v>
       </c>
       <c r="D18">
-        <v>0.9802580594530332</v>
+        <v>0.9831877871296719</v>
       </c>
       <c r="E18">
-        <v>0.9320088614902151</v>
+        <v>0.9332588850264797</v>
       </c>
       <c r="F18">
-        <v>0.9623280516340993</v>
+        <v>0.9649553352666483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026850476641513</v>
+        <v>1.028391022755823</v>
       </c>
       <c r="J18">
-        <v>0.9808628533885762</v>
+        <v>0.9843978102339971</v>
       </c>
       <c r="K18">
-        <v>0.994426493848985</v>
+        <v>0.9973031719200478</v>
       </c>
       <c r="L18">
-        <v>0.9471143613004307</v>
+        <v>0.9483384929872556</v>
       </c>
       <c r="M18">
-        <v>0.9768303588349835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9794077058829032</v>
+      </c>
+      <c r="N18">
+        <v>0.9857957680365365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.952895523800669</v>
+        <v>0.9565846468452056</v>
       </c>
       <c r="D19">
-        <v>0.9810859081676899</v>
+        <v>0.9840117259205986</v>
       </c>
       <c r="E19">
-        <v>0.9329187313801379</v>
+        <v>0.9341644709873447</v>
       </c>
       <c r="F19">
-        <v>0.9633153107100506</v>
+        <v>0.9659375656243178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027260095169907</v>
+        <v>1.028798691528078</v>
       </c>
       <c r="J19">
-        <v>0.9817184458174956</v>
+        <v>0.9852495731253427</v>
       </c>
       <c r="K19">
-        <v>0.9951729651181007</v>
+        <v>0.9980462051303987</v>
       </c>
       <c r="L19">
-        <v>0.9479339524123983</v>
+        <v>0.9491540961623764</v>
       </c>
       <c r="M19">
-        <v>0.9777306784575432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9803034950917575</v>
+      </c>
+      <c r="N19">
+        <v>0.9866487405288863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9481652477419018</v>
+        <v>0.9518797408722349</v>
       </c>
       <c r="D20">
-        <v>0.9773458828584748</v>
+        <v>0.9802897309168107</v>
       </c>
       <c r="E20">
-        <v>0.9288028524462442</v>
+        <v>0.9300683710529606</v>
       </c>
       <c r="F20">
-        <v>0.9588524111406552</v>
+        <v>0.9614978544464681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025407590576052</v>
+        <v>1.026955192404627</v>
       </c>
       <c r="J20">
-        <v>0.9778516636176428</v>
+        <v>0.9814004928716464</v>
       </c>
       <c r="K20">
-        <v>0.9917991279168445</v>
+        <v>0.9946882479249342</v>
       </c>
       <c r="L20">
-        <v>0.9442248742488206</v>
+        <v>0.945463435778219</v>
       </c>
       <c r="M20">
-        <v>0.9736595519137654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9762532770318427</v>
+      </c>
+      <c r="N20">
+        <v>0.9827941941397339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.931843695252026</v>
+        <v>0.9356561428075469</v>
       </c>
       <c r="D21">
-        <v>0.9644546550193392</v>
+        <v>0.9674684293361393</v>
       </c>
       <c r="E21">
-        <v>0.9145107989049873</v>
+        <v>0.9158536184741619</v>
       </c>
       <c r="F21">
-        <v>0.9434147577776218</v>
+        <v>0.9461501528161146</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018986103239194</v>
+        <v>1.02056892030568</v>
       </c>
       <c r="J21">
-        <v>0.9644957823176318</v>
+        <v>0.9681141450408348</v>
       </c>
       <c r="K21">
-        <v>0.980142256698766</v>
+        <v>0.9830934933521458</v>
       </c>
       <c r="L21">
-        <v>0.9313154543172569</v>
+        <v>0.9326260996669916</v>
       </c>
       <c r="M21">
-        <v>0.9595537646138435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9622289632141111</v>
+      </c>
+      <c r="N21">
+        <v>0.9694889781710373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9207245456292459</v>
+        <v>0.924614206698978</v>
       </c>
       <c r="D22">
-        <v>0.9556859415687619</v>
+        <v>0.9587551146565196</v>
       </c>
       <c r="E22">
-        <v>0.9046940039260527</v>
+        <v>0.9060987457932865</v>
       </c>
       <c r="F22">
-        <v>0.93286273942024</v>
+        <v>0.9356694876304545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014588706843884</v>
+        <v>1.016199671590365</v>
       </c>
       <c r="J22">
-        <v>0.955386554868027</v>
+        <v>0.9590607927843779</v>
       </c>
       <c r="K22">
-        <v>0.9721895276958538</v>
+        <v>0.975190445062644</v>
       </c>
       <c r="L22">
-        <v>0.9224235204273317</v>
+        <v>0.9237919865690905</v>
       </c>
       <c r="M22">
-        <v>0.9498928067588039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9526329524283726</v>
+      </c>
+      <c r="N22">
+        <v>0.9604227691159425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9267103953032789</v>
+        <v>0.9305573408395034</v>
       </c>
       <c r="D23">
-        <v>0.9604050080477127</v>
+        <v>0.9634435073028437</v>
       </c>
       <c r="E23">
-        <v>0.9099868595800591</v>
+        <v>0.9113572409389774</v>
       </c>
       <c r="F23">
-        <v>0.9385468707427411</v>
+        <v>0.941314098069829</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016958059504736</v>
+        <v>1.018553416297838</v>
       </c>
       <c r="J23">
-        <v>0.9602913333103485</v>
+        <v>0.9639345594399251</v>
       </c>
       <c r="K23">
-        <v>0.9764717731788111</v>
+        <v>0.9794451388410755</v>
       </c>
       <c r="L23">
-        <v>0.9272201068912829</v>
+        <v>0.928556482099784</v>
       </c>
       <c r="M23">
-        <v>0.9550987984158704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9578029418661085</v>
+      </c>
+      <c r="N23">
+        <v>0.9653034570791689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9484263369331255</v>
+        <v>0.9521393965136219</v>
       </c>
       <c r="D24">
-        <v>0.9775522720305511</v>
+        <v>0.9804951002791689</v>
       </c>
       <c r="E24">
-        <v>0.9290303381064767</v>
+        <v>0.9302947363527614</v>
       </c>
       <c r="F24">
-        <v>0.9590988728167282</v>
+        <v>0.9617430046192013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025509947944371</v>
+        <v>1.027057039469331</v>
       </c>
       <c r="J24">
-        <v>0.9780651425206605</v>
+        <v>0.9816129677254547</v>
       </c>
       <c r="K24">
-        <v>0.9919854063752696</v>
+        <v>0.9948736264952045</v>
       </c>
       <c r="L24">
-        <v>0.9444299810907338</v>
+        <v>0.9456674990124541</v>
       </c>
       <c r="M24">
-        <v>0.9738844602110485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9764770015906408</v>
+      </c>
+      <c r="N24">
+        <v>0.9830069707322059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9706870707431688</v>
+        <v>0.9742913575878287</v>
       </c>
       <c r="D25">
-        <v>0.9951660548578019</v>
+        <v>0.9980319032981144</v>
       </c>
       <c r="E25">
-        <v>0.9482922693790184</v>
+        <v>0.9494726490782082</v>
       </c>
       <c r="F25">
-        <v>0.9800565227235157</v>
+        <v>0.9826015870958846</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034186846663213</v>
+        <v>1.03569580342241</v>
       </c>
       <c r="J25">
-        <v>0.9962428681541283</v>
+        <v>0.9997160144323783</v>
       </c>
       <c r="K25">
-        <v>1.007839877970474</v>
+        <v>1.010660848455512</v>
       </c>
       <c r="L25">
-        <v>0.961750077929452</v>
+        <v>0.9629094825948037</v>
       </c>
       <c r="M25">
-        <v>0.9929725317187863</v>
+        <v>0.9954761321453004</v>
+      </c>
+      <c r="N25">
+        <v>1.001135725841902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.990227364148019</v>
+        <v>1.000935302107962</v>
       </c>
       <c r="D2">
-        <v>1.010663173734898</v>
+        <v>1.020711863261425</v>
       </c>
       <c r="E2">
-        <v>0.9631004037940504</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9975384171817978</v>
+        <v>1.020871306430052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041837815505143</v>
+        <v>1.04282760911673</v>
       </c>
       <c r="J2">
-        <v>1.012704354448267</v>
+        <v>1.023088074393368</v>
       </c>
       <c r="K2">
-        <v>1.021975925891104</v>
+        <v>1.031889997349586</v>
       </c>
       <c r="L2">
-        <v>0.9750989236785589</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.009032152626065</v>
+        <v>1.032047331321943</v>
       </c>
       <c r="N2">
-        <v>1.014142510790397</v>
+        <v>1.024540976808848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001001414785884</v>
+        <v>1.008472911504521</v>
       </c>
       <c r="D3">
-        <v>1.019207262036295</v>
+        <v>1.026594949510115</v>
       </c>
       <c r="E3">
-        <v>0.9722291868462838</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.007603432561711</v>
+        <v>1.027662424301439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045947680312537</v>
+        <v>1.044867131704973</v>
       </c>
       <c r="J3">
-        <v>1.021464817401735</v>
+        <v>1.028735231486605</v>
       </c>
       <c r="K3">
-        <v>1.029600142127073</v>
+        <v>1.036898486029865</v>
       </c>
       <c r="L3">
-        <v>0.9832301803404619</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.018139941732505</v>
+        <v>1.037953182971938</v>
       </c>
       <c r="N3">
-        <v>1.022915414606098</v>
+        <v>1.030196153512896</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007656505654993</v>
+        <v>1.013200663790027</v>
       </c>
       <c r="D4">
-        <v>1.02448569619834</v>
+        <v>1.030287354128667</v>
       </c>
       <c r="E4">
-        <v>0.9778319576957822</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.013806558560219</v>
+        <v>1.031928597459919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04846638888273</v>
+        <v>1.046133350175578</v>
       </c>
       <c r="J4">
-        <v>1.026866364512199</v>
+        <v>1.032272618574614</v>
       </c>
       <c r="K4">
-        <v>1.034297316209176</v>
+        <v>1.040033479250406</v>
       </c>
       <c r="L4">
-        <v>0.9882055054485098</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.023741158185351</v>
+        <v>1.041656359079152</v>
       </c>
       <c r="N4">
-        <v>1.028324632533024</v>
+        <v>1.033738564096315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010385095793298</v>
+        <v>1.015154435984459</v>
       </c>
       <c r="D5">
-        <v>1.026649887066156</v>
+        <v>1.031813721234828</v>
       </c>
       <c r="E5">
-        <v>0.9801208221423973</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.016346664316858</v>
+        <v>1.033693106033465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049494236859177</v>
+        <v>1.046653432290318</v>
       </c>
       <c r="J5">
-        <v>1.029078631595273</v>
+        <v>1.033733286226832</v>
       </c>
       <c r="K5">
-        <v>1.036220156894908</v>
+        <v>1.041327399440475</v>
       </c>
       <c r="L5">
-        <v>0.9902344508369122</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.026031966384559</v>
+        <v>1.043186359807395</v>
       </c>
       <c r="N5">
-        <v>1.030540041289107</v>
+        <v>1.03520130606414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010839352835138</v>
+        <v>1.015480558311877</v>
       </c>
       <c r="D6">
-        <v>1.02701018016866</v>
+        <v>1.032068525072557</v>
       </c>
       <c r="E6">
-        <v>0.980501396316769</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.01676936002324</v>
+        <v>1.033987721127007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049665068465497</v>
+        <v>1.046740054489841</v>
       </c>
       <c r="J6">
-        <v>1.029446790652518</v>
+        <v>1.033977028655289</v>
       </c>
       <c r="K6">
-        <v>1.036540094038911</v>
+        <v>1.041543281067646</v>
       </c>
       <c r="L6">
-        <v>0.9905715977259267</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.026413011919349</v>
+        <v>1.043441722729862</v>
       </c>
       <c r="N6">
-        <v>1.030908723174442</v>
+        <v>1.035445394634802</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007693229192772</v>
+        <v>1.013226900339663</v>
       </c>
       <c r="D7">
-        <v>1.024514823676446</v>
+        <v>1.030307849534359</v>
       </c>
       <c r="E7">
-        <v>0.977862795451742</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.013840757727736</v>
+        <v>1.031952286700087</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048480241682931</v>
+        <v>1.0461403469005</v>
       </c>
       <c r="J7">
-        <v>1.026896148408426</v>
+        <v>1.032292238142484</v>
       </c>
       <c r="K7">
-        <v>1.034323207325173</v>
+        <v>1.040050861455388</v>
       </c>
       <c r="L7">
-        <v>0.9882328555427147</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.02377201204539</v>
+        <v>1.041676906486685</v>
       </c>
       <c r="N7">
-        <v>1.028354458725801</v>
+        <v>1.033758211526221</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9939382797032391</v>
+        <v>1.003514928431275</v>
       </c>
       <c r="D8">
-        <v>1.013605750641228</v>
+        <v>1.022724671753386</v>
       </c>
       <c r="E8">
-        <v>0.9662525836418441</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.001008227830804</v>
+        <v>1.023193988515935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043257610394672</v>
+        <v>1.043528309130774</v>
       </c>
       <c r="J8">
-        <v>1.015723792821349</v>
+        <v>1.025021659096309</v>
       </c>
       <c r="K8">
-        <v>1.024604524112018</v>
+        <v>1.033605375626714</v>
       </c>
       <c r="L8">
-        <v>0.9779099576625576</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.012174559328302</v>
+        <v>1.034068686957533</v>
       </c>
       <c r="N8">
-        <v>1.017166237112303</v>
+        <v>1.026477307423854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.966920424190291</v>
+        <v>0.985153643475812</v>
       </c>
       <c r="D9">
-        <v>0.9921933814108677</v>
+        <v>1.008413791831394</v>
       </c>
       <c r="E9">
-        <v>0.9431209719041381</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9756732735549817</v>
+        <v>1.006695283097332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032833042100864</v>
+        <v>1.038487469190195</v>
       </c>
       <c r="J9">
-        <v>0.9936979306630451</v>
+        <v>1.011241782149905</v>
       </c>
       <c r="K9">
-        <v>1.005414398225371</v>
+        <v>1.021371820294281</v>
       </c>
       <c r="L9">
-        <v>0.9572096004992396</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9891737636910082</v>
+        <v>1.019680660001737</v>
       </c>
       <c r="N9">
-        <v>0.9951090957033322</v>
+        <v>1.012677861471612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9464057461388474</v>
+        <v>0.9719123657761273</v>
       </c>
       <c r="D10">
-        <v>0.9759613562546348</v>
+        <v>0.9981208412965594</v>
       </c>
       <c r="E10">
-        <v>0.9252878285744108</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9563261085952278</v>
+        <v>0.9948468061461934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024805282189432</v>
+        <v>1.034787388736341</v>
       </c>
       <c r="J10">
-        <v>0.9769198362076732</v>
+        <v>1.001286463076647</v>
       </c>
       <c r="K10">
-        <v>0.9907786371324275</v>
+        <v>1.012524107626612</v>
       </c>
       <c r="L10">
-        <v>0.9411511196654764</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.971531372681864</v>
+        <v>1.009309730643116</v>
       </c>
       <c r="N10">
-        <v>0.9783071744293593</v>
+        <v>1.002708404703378</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9367299734027061</v>
+        <v>0.9658985932709525</v>
       </c>
       <c r="D11">
-        <v>0.9683163910619985</v>
+        <v>0.9934551482703319</v>
       </c>
       <c r="E11">
-        <v>0.9167988100481215</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9471678752345831</v>
+        <v>0.9894797205917149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02099291624258</v>
+        <v>1.033092809777469</v>
       </c>
       <c r="J11">
-        <v>0.9689941632817918</v>
+        <v>0.9967622153280008</v>
       </c>
       <c r="K11">
-        <v>0.9838616139543558</v>
+        <v>1.008501555451105</v>
       </c>
       <c r="L11">
-        <v>0.9334810552857616</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9631599858945759</v>
+        <v>1.004602798965966</v>
       </c>
       <c r="N11">
-        <v>0.9703702461388362</v>
+        <v>0.9981777320039906</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9329935255654959</v>
+        <v>0.9636184359098671</v>
       </c>
       <c r="D12">
-        <v>0.9653663047870537</v>
+        <v>0.9916877277835636</v>
       </c>
       <c r="E12">
-        <v>0.9135073194301652</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9436255016887313</v>
+        <v>0.9874471076469099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019516875297022</v>
+        <v>1.032448302983717</v>
       </c>
       <c r="J12">
-        <v>0.9659317593261427</v>
+        <v>0.9950465279515092</v>
       </c>
       <c r="K12">
-        <v>0.9811885349074194</v>
+        <v>1.006975929490083</v>
       </c>
       <c r="L12">
-        <v>0.9305030036347376</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9599187676555763</v>
+        <v>1.002818818612669</v>
       </c>
       <c r="N12">
-        <v>0.9673034932183073</v>
+        <v>0.9964596081546321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9338019048534202</v>
+        <v>0.9641097112758359</v>
       </c>
       <c r="D13">
-        <v>0.9660044498282981</v>
+        <v>0.992068453858226</v>
       </c>
       <c r="E13">
-        <v>0.9142200627961913</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9443921687507391</v>
+        <v>0.9878849379421261</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019836387497947</v>
+        <v>1.032587254322688</v>
       </c>
       <c r="J13">
-        <v>0.9665943886631986</v>
+        <v>0.9954161952432207</v>
       </c>
       <c r="K13">
-        <v>0.9817669404362259</v>
+        <v>1.007304653221975</v>
       </c>
       <c r="L13">
-        <v>0.9311480627668827</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9606204031912571</v>
+        <v>1.003203155155592</v>
       </c>
       <c r="N13">
-        <v>0.9679670635650264</v>
+        <v>0.9968298004162994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9364241835211949</v>
+        <v>0.9657110876741706</v>
       </c>
       <c r="D14">
-        <v>0.9680749105801095</v>
+        <v>0.9933097728483435</v>
       </c>
       <c r="E14">
-        <v>0.9165297146071021</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9468780902599261</v>
+        <v>0.9893125224515127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020872194232122</v>
+        <v>1.033039849364908</v>
       </c>
       <c r="J14">
-        <v>0.9687435725320802</v>
+        <v>0.9966211332185387</v>
       </c>
       <c r="K14">
-        <v>0.9836428885173621</v>
+        <v>1.008376105750046</v>
       </c>
       <c r="L14">
-        <v>0.9332376688388672</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9628949024148439</v>
+        <v>1.004456080792264</v>
       </c>
       <c r="N14">
-        <v>0.9701192995215167</v>
+        <v>0.9980364495417506</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9380201640371297</v>
+        <v>0.9666914652366821</v>
       </c>
       <c r="D15">
-        <v>0.9693353362801659</v>
+        <v>0.9940699384694202</v>
       </c>
       <c r="E15">
-        <v>0.9179336315896751</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9483902995166559</v>
+        <v>0.990186818814458</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021502113196466</v>
+        <v>1.03331667382907</v>
       </c>
       <c r="J15">
-        <v>0.9700513858675557</v>
+        <v>0.9973587734413999</v>
       </c>
       <c r="K15">
-        <v>0.984784383495788</v>
+        <v>1.009032005336334</v>
       </c>
       <c r="L15">
-        <v>0.9345072913357754</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9642780800693279</v>
+        <v>1.005223229193875</v>
       </c>
       <c r="N15">
-        <v>0.9714289701019369</v>
+        <v>0.998775137298337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9470293533348292</v>
+        <v>0.9723052248184911</v>
       </c>
       <c r="D16">
-        <v>0.9764543370983876</v>
+        <v>0.9984258417692021</v>
       </c>
       <c r="E16">
-        <v>0.925833241807012</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9569156260635823</v>
+        <v>0.9951977296022387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025050467238152</v>
+        <v>1.034897808109622</v>
       </c>
       <c r="J16">
-        <v>0.9774304042960968</v>
+        <v>1.0015819687134</v>
       </c>
       <c r="K16">
-        <v>0.991224167901732</v>
+        <v>1.012786814904665</v>
       </c>
       <c r="L16">
-        <v>0.9416433760069012</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.972069819084348</v>
+        <v>1.009617300770235</v>
       </c>
       <c r="N16">
-        <v>0.9788184675830317</v>
+        <v>1.00300432999203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9524538755214035</v>
+        <v>0.9757487310031994</v>
       </c>
       <c r="D17">
-        <v>0.9807438376268162</v>
+        <v>1.001100290733591</v>
       </c>
       <c r="E17">
-        <v>0.9305688479312995</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9620398951049179</v>
+        <v>0.9982752746310893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027180373879142</v>
+        <v>1.035864084678342</v>
       </c>
       <c r="J17">
-        <v>0.9818702964678289</v>
+        <v>1.004171841594065</v>
       </c>
       <c r="K17">
-        <v>0.9950981366945214</v>
+        <v>1.015089055332681</v>
       </c>
       <c r="L17">
-        <v>0.9459145883416412</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9767479318820433</v>
+        <v>1.012313612261778</v>
       </c>
       <c r="N17">
-        <v>0.9832646649109106</v>
+        <v>1.005597880789249</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9555432899144345</v>
+        <v>0.9777305520345858</v>
       </c>
       <c r="D18">
-        <v>0.9831877871296719</v>
+        <v>1.002640331120002</v>
       </c>
       <c r="E18">
-        <v>0.9332588850264797</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9649553352666483</v>
+        <v>1.000047783897944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028391022755823</v>
+        <v>1.036418867971243</v>
       </c>
       <c r="J18">
-        <v>0.9843978102339971</v>
+        <v>1.005662098818256</v>
       </c>
       <c r="K18">
-        <v>0.9973031719200478</v>
+        <v>1.016413644118461</v>
       </c>
       <c r="L18">
-        <v>0.9483384929872556</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9794077058829032</v>
+        <v>1.013865692580539</v>
       </c>
       <c r="N18">
-        <v>0.9857957680365365</v>
+        <v>1.007090254349633</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9565846468452056</v>
+        <v>0.9784018902905678</v>
       </c>
       <c r="D19">
-        <v>0.9840117259205986</v>
+        <v>1.003162151045448</v>
       </c>
       <c r="E19">
-        <v>0.9341644709873447</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9659375656243178</v>
+        <v>1.000648433730291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028798691528078</v>
+        <v>1.036606570366003</v>
       </c>
       <c r="J19">
-        <v>0.9852495731253427</v>
+        <v>1.006166869935115</v>
       </c>
       <c r="K19">
-        <v>0.9980462051303987</v>
+        <v>1.016862272287917</v>
       </c>
       <c r="L19">
-        <v>0.9491540961623764</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9803034950917575</v>
+        <v>1.014391500355651</v>
       </c>
       <c r="N19">
-        <v>0.9866487405288863</v>
+        <v>1.007595742299377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9518797408722349</v>
+        <v>0.9753820679327784</v>
       </c>
       <c r="D20">
-        <v>0.9802897309168107</v>
+        <v>1.000815428570639</v>
       </c>
       <c r="E20">
-        <v>0.9300683710529606</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9614978544464681</v>
+        <v>0.9979474414677194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026955192404627</v>
+        <v>1.035761333637081</v>
       </c>
       <c r="J20">
-        <v>0.9814004928716464</v>
+        <v>1.003896100941735</v>
       </c>
       <c r="K20">
-        <v>0.9946882479249342</v>
+        <v>1.014843954788448</v>
       </c>
       <c r="L20">
-        <v>0.945463435778219</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9762532770318427</v>
+        <v>1.012026478917017</v>
       </c>
       <c r="N20">
-        <v>0.9827941941397339</v>
+        <v>1.005321748553565</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9356561428075469</v>
+        <v>0.9652408397963447</v>
       </c>
       <c r="D21">
-        <v>0.9674684293361393</v>
+        <v>0.9929452104954758</v>
       </c>
       <c r="E21">
-        <v>0.9158536184741619</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9461501528161146</v>
+        <v>0.9888932425061682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02056892030568</v>
+        <v>1.032906997560245</v>
       </c>
       <c r="J21">
-        <v>0.9681141450408348</v>
+        <v>0.9962673072450644</v>
       </c>
       <c r="K21">
-        <v>0.9830934933521458</v>
+        <v>1.008061482100242</v>
       </c>
       <c r="L21">
-        <v>0.9326260996669916</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9622289632141111</v>
+        <v>1.004088135907097</v>
       </c>
       <c r="N21">
-        <v>0.9694889781710373</v>
+        <v>0.9976821210948099</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.924614206698978</v>
+        <v>0.9585937515845385</v>
       </c>
       <c r="D22">
-        <v>0.9587551146565196</v>
+        <v>0.9877962016866697</v>
       </c>
       <c r="E22">
-        <v>0.9060987457932865</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9356694876304545</v>
+        <v>0.9829725420492942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016199671590365</v>
+        <v>1.031024493266288</v>
       </c>
       <c r="J22">
-        <v>0.9590607927843779</v>
+        <v>0.9912653690436279</v>
       </c>
       <c r="K22">
-        <v>0.975190445062644</v>
+        <v>1.003613357766118</v>
       </c>
       <c r="L22">
-        <v>0.9237919865690905</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9526329524283726</v>
+        <v>0.9988890350365116</v>
       </c>
       <c r="N22">
-        <v>0.9604227691159425</v>
+        <v>0.9926730795673971</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9305573408395034</v>
+        <v>0.9621447703989732</v>
       </c>
       <c r="D23">
-        <v>0.9634435073028437</v>
+        <v>0.9905459298481857</v>
       </c>
       <c r="E23">
-        <v>0.9113572409389774</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.941314098069829</v>
+        <v>0.9861341234096443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018553416297838</v>
+        <v>1.032031211917706</v>
       </c>
       <c r="J23">
-        <v>0.9639345594399251</v>
+        <v>0.9939376155588719</v>
       </c>
       <c r="K23">
-        <v>0.9794451388410755</v>
+        <v>1.005989814563658</v>
       </c>
       <c r="L23">
-        <v>0.928556482099784</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9578029418661085</v>
+        <v>1.001666050922636</v>
       </c>
       <c r="N23">
-        <v>0.9653034570791689</v>
+        <v>0.9953491209792036</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9521393965136219</v>
+        <v>0.9755478294413049</v>
       </c>
       <c r="D24">
-        <v>0.9804951002791689</v>
+        <v>1.000944206858009</v>
       </c>
       <c r="E24">
-        <v>0.9302947363527614</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9617430046192013</v>
+        <v>0.9980956446549284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027057039469331</v>
+        <v>1.035807789608103</v>
       </c>
       <c r="J24">
-        <v>0.9816129677254547</v>
+        <v>1.004020758998995</v>
       </c>
       <c r="K24">
-        <v>0.9948736264952045</v>
+        <v>1.0149547614306</v>
       </c>
       <c r="L24">
-        <v>0.9456674990124541</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9764770015906408</v>
+        <v>1.012156285645427</v>
       </c>
       <c r="N24">
-        <v>0.9830069707322059</v>
+        <v>1.005446583639565</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742913575878287</v>
+        <v>0.9900637687798832</v>
       </c>
       <c r="D25">
-        <v>0.9980319032981144</v>
+        <v>1.012236872604824</v>
       </c>
       <c r="E25">
-        <v>0.9494726490782082</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9826015870958846</v>
+        <v>1.011099591768137</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03569580342241</v>
+        <v>1.039846869975113</v>
       </c>
       <c r="J25">
-        <v>0.9997160144323783</v>
+        <v>1.01493021703069</v>
       </c>
       <c r="K25">
-        <v>1.010660848455512</v>
+        <v>1.02464815105145</v>
       </c>
       <c r="L25">
-        <v>0.9629094825948037</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9954761321453004</v>
+        <v>1.023528010218309</v>
       </c>
       <c r="N25">
-        <v>1.001135725841902</v>
+        <v>1.016371534352996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000935302107962</v>
+        <v>0.961902909844558</v>
       </c>
       <c r="D2">
-        <v>1.020711863261425</v>
+        <v>0.9878010570913796</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.020871306430052</v>
+        <v>0.9366164691390082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04282760911673</v>
+        <v>1.029246398086893</v>
       </c>
       <c r="J2">
-        <v>1.023088074393368</v>
+        <v>0.9852860335707591</v>
       </c>
       <c r="K2">
-        <v>1.031889997349586</v>
+        <v>0.9994330000479933</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.032047331321943</v>
+        <v>0.9490356504597351</v>
       </c>
       <c r="N2">
-        <v>1.024540976808848</v>
+        <v>0.9866852527523171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008472911504521</v>
+        <v>0.9720736626572632</v>
       </c>
       <c r="D3">
-        <v>1.026594949510115</v>
+        <v>0.9950998921113613</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.027662424301439</v>
+        <v>0.949983924001095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044867131704973</v>
+        <v>1.031863815837487</v>
       </c>
       <c r="J3">
-        <v>1.028735231486605</v>
+        <v>0.9933557029171942</v>
       </c>
       <c r="K3">
-        <v>1.036898486029865</v>
+        <v>1.00579585707668</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037953182971938</v>
+        <v>0.9612994646048515</v>
       </c>
       <c r="N3">
-        <v>1.030196153512896</v>
+        <v>0.9947663819548285</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013200663790027</v>
+        <v>0.9783574019831489</v>
       </c>
       <c r="D4">
-        <v>1.030287354128667</v>
+        <v>0.9996130279024</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031928597459919</v>
+        <v>0.9582264029364881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046133350175578</v>
+        <v>1.033464944213377</v>
       </c>
       <c r="J4">
-        <v>1.032272618574614</v>
+        <v>0.9983314114655708</v>
       </c>
       <c r="K4">
-        <v>1.040033479250406</v>
+        <v>1.009716125581212</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041656359079152</v>
+        <v>0.9688565913674538</v>
       </c>
       <c r="N4">
-        <v>1.033738564096315</v>
+        <v>0.9997491565800651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015154435984459</v>
+        <v>0.9809339275303227</v>
       </c>
       <c r="D5">
-        <v>1.031813721234828</v>
+        <v>1.001464205208667</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.033693106033465</v>
+        <v>0.9616030833536112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046653432290318</v>
+        <v>1.034117527284844</v>
       </c>
       <c r="J5">
-        <v>1.033733286226832</v>
+        <v>1.000369194634507</v>
       </c>
       <c r="K5">
-        <v>1.041327399440475</v>
+        <v>1.011320833179926</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.043186359807395</v>
+        <v>0.9719512496321516</v>
       </c>
       <c r="N5">
-        <v>1.03520130606414</v>
+        <v>1.001789833634838</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015480558311877</v>
+        <v>0.9813628766044273</v>
       </c>
       <c r="D6">
-        <v>1.032068525072557</v>
+        <v>1.00177242760376</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033987721127007</v>
+        <v>0.9621650931199059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046740054489841</v>
+        <v>1.034225937737743</v>
       </c>
       <c r="J6">
-        <v>1.033977028655289</v>
+        <v>1.00070830933425</v>
       </c>
       <c r="K6">
-        <v>1.041543281067646</v>
+        <v>1.01158782709911</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.043441722729862</v>
+        <v>0.9724662436927561</v>
       </c>
       <c r="N6">
-        <v>1.035445394634802</v>
+        <v>1.002129429916352</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013226900339663</v>
+        <v>0.9783920783152392</v>
       </c>
       <c r="D7">
-        <v>1.030307849534359</v>
+        <v>0.9996379397985112</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031952286700087</v>
+        <v>0.9582718589606802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0461403469005</v>
+        <v>1.033473742764041</v>
       </c>
       <c r="J7">
-        <v>1.032292238142484</v>
+        <v>0.9983588467037918</v>
       </c>
       <c r="K7">
-        <v>1.040050861455388</v>
+        <v>1.009737733597887</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041676906486685</v>
+        <v>0.968898255979723</v>
       </c>
       <c r="N7">
-        <v>1.033758211526221</v>
+        <v>0.9997766307794715</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003514928431275</v>
+        <v>0.9654056719108649</v>
       </c>
       <c r="D8">
-        <v>1.022724671753386</v>
+        <v>0.9903137853188464</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.023193988515935</v>
+        <v>0.9412242499097125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043528309130774</v>
+        <v>1.030151172623648</v>
       </c>
       <c r="J8">
-        <v>1.025021659096309</v>
+        <v>0.9880672943727051</v>
       </c>
       <c r="K8">
-        <v>1.033605375626714</v>
+        <v>1.001626581057027</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.034068686957533</v>
+        <v>0.9532639743783862</v>
       </c>
       <c r="N8">
-        <v>1.026477307423854</v>
+        <v>0.9894704632636173</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.985153643475812</v>
+        <v>0.9399152929870149</v>
       </c>
       <c r="D9">
-        <v>1.008413791831394</v>
+        <v>0.972057188762476</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.006695283097332</v>
+        <v>0.9075695671455176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038487469190195</v>
+        <v>1.023499986597199</v>
       </c>
       <c r="J9">
-        <v>1.011241782149905</v>
+        <v>0.9677840457165043</v>
       </c>
       <c r="K9">
-        <v>1.021371820294281</v>
+        <v>0.9856204938299682</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.019680660001737</v>
+        <v>0.9223642687500033</v>
       </c>
       <c r="N9">
-        <v>1.012677861471612</v>
+        <v>0.9691584100678033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9719123657761273</v>
+        <v>0.9205843613478555</v>
       </c>
       <c r="D10">
-        <v>0.9981208412965594</v>
+        <v>0.9582677397754054</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9948468061461934</v>
+        <v>0.8818065676824386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034787388736341</v>
+        <v>1.018374554256575</v>
       </c>
       <c r="J10">
-        <v>1.001286463076647</v>
+        <v>0.9523461189052042</v>
       </c>
       <c r="K10">
-        <v>1.012524107626612</v>
+        <v>0.9734337052905768</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>1.009309730643116</v>
+        <v>0.8986970365477215</v>
       </c>
       <c r="N10">
-        <v>1.002708404703378</v>
+        <v>0.9536985596296762</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9658985932709525</v>
+        <v>0.9114756096931247</v>
       </c>
       <c r="D11">
-        <v>0.9934551482703319</v>
+        <v>0.951790536980455</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9894797205917149</v>
+        <v>0.8695740827112527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033092809777469</v>
+        <v>1.015942352357152</v>
       </c>
       <c r="J11">
-        <v>0.9967622153280008</v>
+        <v>0.9450585304929645</v>
       </c>
       <c r="K11">
-        <v>1.008501555451105</v>
+        <v>0.967682717233288</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>1.004602798965966</v>
+        <v>0.887460298056521</v>
       </c>
       <c r="N11">
-        <v>0.9981777320039906</v>
+        <v>0.946400622005993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9636184359098671</v>
+        <v>0.9079596958111134</v>
       </c>
       <c r="D12">
-        <v>0.9916877277835636</v>
+        <v>0.9492942198856507</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9874471076469099</v>
+        <v>0.864834163034953</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032448302983717</v>
+        <v>1.015001218968322</v>
       </c>
       <c r="J12">
-        <v>0.9950465279515092</v>
+        <v>0.9422435716681322</v>
       </c>
       <c r="K12">
-        <v>1.006975929490083</v>
+        <v>0.9654619026521916</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>1.002818818612669</v>
+        <v>0.8831067824954985</v>
       </c>
       <c r="N12">
-        <v>0.9964596081546321</v>
+        <v>0.9435816656167494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9641097112758359</v>
+        <v>0.9087202881299385</v>
       </c>
       <c r="D13">
-        <v>0.992068453858226</v>
+        <v>0.9498340574935441</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593367008</v>
       </c>
       <c r="F13">
-        <v>0.9878849379421261</v>
+        <v>0.8658604488597234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032587254322688</v>
+        <v>1.015204912816753</v>
       </c>
       <c r="J13">
-        <v>0.9954161952432207</v>
+        <v>0.9428526180332972</v>
       </c>
       <c r="K13">
-        <v>1.007304653221975</v>
+        <v>0.9659423662696428</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088964245</v>
       </c>
       <c r="M13">
-        <v>1.003203155155592</v>
+        <v>0.8840493695890252</v>
       </c>
       <c r="N13">
-        <v>0.9968298004162994</v>
+        <v>0.9441915768976112</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9657110876741706</v>
+        <v>0.9111878352252128</v>
       </c>
       <c r="D14">
-        <v>0.9933097728483435</v>
+        <v>0.9515861332912322</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194315</v>
       </c>
       <c r="F14">
-        <v>0.9893125224515127</v>
+        <v>0.8691865220203989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033039849364908</v>
+        <v>1.015865366560881</v>
       </c>
       <c r="J14">
-        <v>0.9966211332185387</v>
+        <v>0.9448281690775343</v>
       </c>
       <c r="K14">
-        <v>1.008376105750046</v>
+        <v>0.9675009631242104</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764517</v>
       </c>
       <c r="M14">
-        <v>1.004456080792264</v>
+        <v>0.8871043171800196</v>
       </c>
       <c r="N14">
-        <v>0.9980364495417506</v>
+        <v>0.9461699334509301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9666914652366821</v>
+        <v>0.9126898543437342</v>
       </c>
       <c r="D15">
-        <v>0.9940699384694202</v>
+        <v>0.952653164004246</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717471</v>
       </c>
       <c r="F15">
-        <v>0.990186818814458</v>
+        <v>0.8712086033055273</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03331667382907</v>
+        <v>1.016267096714443</v>
       </c>
       <c r="J15">
-        <v>0.9973587734413999</v>
+        <v>0.9460304438933965</v>
       </c>
       <c r="K15">
-        <v>1.009032005336334</v>
+        <v>0.9684495789958832</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508767191</v>
       </c>
       <c r="M15">
-        <v>1.005223229193875</v>
+        <v>0.8889616580650869</v>
       </c>
       <c r="N15">
-        <v>0.998775137298337</v>
+        <v>0.9473739156349337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9723052248184911</v>
+        <v>0.9211716226513182</v>
       </c>
       <c r="D16">
-        <v>0.9984258417692021</v>
+        <v>0.9586858140077791</v>
       </c>
       <c r="E16">
         <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9951977296022387</v>
+        <v>0.8825930084846892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034897808109622</v>
+        <v>1.018531035589312</v>
       </c>
       <c r="J16">
-        <v>1.0015819687134</v>
+        <v>0.9528156964439048</v>
       </c>
       <c r="K16">
-        <v>1.012786814904665</v>
+        <v>0.9738043346655283</v>
       </c>
       <c r="L16">
         <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>1.009617300770235</v>
+        <v>0.8994195081159621</v>
       </c>
       <c r="N16">
-        <v>1.00300432999203</v>
+        <v>0.9541688040223429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9757487310031994</v>
+        <v>0.9262809776890744</v>
       </c>
       <c r="D17">
-        <v>1.001100290733591</v>
+        <v>0.9623255117743773</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9982752746310893</v>
+        <v>0.8894246776511976</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035864084678342</v>
+        <v>1.019890610460414</v>
       </c>
       <c r="J17">
-        <v>1.004171841594065</v>
+        <v>0.9568997094008973</v>
       </c>
       <c r="K17">
-        <v>1.015089055332681</v>
+        <v>0.9770280113251253</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.012313612261778</v>
+        <v>0.905695598974992</v>
       </c>
       <c r="N17">
-        <v>1.005597880789249</v>
+        <v>0.9582586167461775</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9777305520345858</v>
+        <v>0.9291916759877726</v>
       </c>
       <c r="D18">
-        <v>1.002640331120002</v>
+        <v>0.9644007883725214</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.000047783897944</v>
+        <v>0.8933083554315254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036418867971243</v>
+        <v>1.020663549960178</v>
       </c>
       <c r="J18">
-        <v>1.005662098818256</v>
+        <v>0.9592250812535785</v>
       </c>
       <c r="K18">
-        <v>1.016413644118461</v>
+        <v>0.9788636696023522</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.013865692580539</v>
+        <v>0.9092634656956001</v>
       </c>
       <c r="N18">
-        <v>1.007090254349633</v>
+        <v>0.9605872908936133</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9784018902905678</v>
+        <v>0.9301729173170317</v>
       </c>
       <c r="D19">
-        <v>1.003162151045448</v>
+        <v>0.9651006840554933</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.000648433730291</v>
+        <v>0.894616317369986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036606570366003</v>
+        <v>1.020923844781445</v>
       </c>
       <c r="J19">
-        <v>1.006166869935115</v>
+        <v>0.9600087948174575</v>
       </c>
       <c r="K19">
-        <v>1.016862272287917</v>
+        <v>0.9794823534112165</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.014391500355651</v>
+        <v>0.9104650605140246</v>
       </c>
       <c r="N19">
-        <v>1.007595742299377</v>
+        <v>0.9613721174206462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753820679327784</v>
+        <v>0.9257401172267314</v>
       </c>
       <c r="D20">
-        <v>1.000815428570639</v>
+        <v>0.9619400306379408</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9979474414677194</v>
+        <v>0.8887023785867789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035761333637081</v>
+        <v>1.019746853770103</v>
       </c>
       <c r="J20">
-        <v>1.003896100941735</v>
+        <v>0.9564675146986465</v>
       </c>
       <c r="K20">
-        <v>1.014843954788448</v>
+        <v>0.9766868450994675</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.012026478917017</v>
+        <v>0.9050320347585322</v>
       </c>
       <c r="N20">
-        <v>1.005321748553565</v>
+        <v>0.957825808277876</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9652408397963447</v>
+        <v>0.9104650690831384</v>
       </c>
       <c r="D21">
-        <v>0.9929452104954758</v>
+        <v>0.9510728231285832</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148885</v>
       </c>
       <c r="F21">
-        <v>0.9888932425061682</v>
+        <v>0.868212826337572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032906997560245</v>
+        <v>1.015671975040878</v>
       </c>
       <c r="J21">
-        <v>0.9962673072450644</v>
+        <v>0.9442495678079509</v>
       </c>
       <c r="K21">
-        <v>1.008061482100242</v>
+        <v>0.9670444602788357</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>1.004088135907097</v>
+        <v>0.8862099725692858</v>
       </c>
       <c r="N21">
-        <v>0.9976821210948099</v>
+        <v>0.9455905105011774</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9585937515845385</v>
+        <v>0.9000781262268401</v>
       </c>
       <c r="D22">
-        <v>0.9877962016866697</v>
+        <v>0.943706447878784</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9829725420492942</v>
+        <v>0.8541684826856661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031024493266288</v>
+        <v>1.012887497396746</v>
       </c>
       <c r="J22">
-        <v>0.9912653690436279</v>
+        <v>0.9359295457301205</v>
       </c>
       <c r="K22">
-        <v>1.003613357766118</v>
+        <v>0.9604821292800234</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9988890350365116</v>
+        <v>0.8733123204044531</v>
       </c>
       <c r="N22">
-        <v>0.9926730795673971</v>
+        <v>0.9372586730376766</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9621447703989732</v>
+        <v>0.9056677735329672</v>
       </c>
       <c r="D23">
-        <v>0.9905459298481857</v>
+        <v>0.947668139318715</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9861341234096443</v>
+        <v>0.8617385170752724</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032031211917706</v>
+        <v>1.014387102062817</v>
       </c>
       <c r="J23">
-        <v>0.9939376155588719</v>
+        <v>0.9404080120454253</v>
       </c>
       <c r="K23">
-        <v>1.005989814563658</v>
+        <v>0.9640139877792838</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.001666050922636</v>
+        <v>0.880263730682756</v>
       </c>
       <c r="N23">
-        <v>0.9953491209792036</v>
+        <v>0.9417434992888364</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9755478294413049</v>
+        <v>0.9259847220135174</v>
       </c>
       <c r="D24">
-        <v>1.000944206858009</v>
+        <v>0.9621143593364114</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9980956446549284</v>
+        <v>0.8890290644580195</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035807789608103</v>
+        <v>1.019811872862885</v>
       </c>
       <c r="J24">
-        <v>1.004020758998995</v>
+        <v>0.9566629790399855</v>
       </c>
       <c r="K24">
-        <v>1.0149547614306</v>
+        <v>0.9768411404692091</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>1.012156285645427</v>
+        <v>0.9053321556246502</v>
       </c>
       <c r="N24">
-        <v>1.005446583639565</v>
+        <v>0.9580215502009999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9900637687798832</v>
+        <v>0.9468664212238506</v>
       </c>
       <c r="D25">
-        <v>1.012236872604824</v>
+        <v>0.9770283912464416</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>1.011099591768137</v>
+        <v>0.9167779935878745</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039846869975113</v>
+        <v>1.025327824986247</v>
       </c>
       <c r="J25">
-        <v>1.01493021703069</v>
+        <v>0.9733245100758633</v>
       </c>
       <c r="K25">
-        <v>1.02464815105145</v>
+        <v>0.9899940962948975</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>1.023528010218309</v>
+        <v>0.9308219910377243</v>
       </c>
       <c r="N25">
-        <v>1.016371534352996</v>
+        <v>0.9747067425220527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.961902909844558</v>
+        <v>1.024422830022724</v>
       </c>
       <c r="D2">
-        <v>0.9878010570913796</v>
+        <v>1.027588801413152</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9366164691390082</v>
+        <v>1.022904906233393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029246398086893</v>
+        <v>1.028489610443474</v>
       </c>
       <c r="J2">
-        <v>0.9852860335707591</v>
+        <v>1.029597529870352</v>
       </c>
       <c r="K2">
-        <v>0.9994330000479933</v>
+        <v>1.030408090989892</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9490356504597351</v>
+        <v>1.025737912806098</v>
       </c>
       <c r="N2">
-        <v>0.9866852527523171</v>
+        <v>1.031059676459259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9720736626572632</v>
+        <v>1.026212814749323</v>
       </c>
       <c r="D3">
-        <v>0.9950998921113613</v>
+        <v>1.028872378576037</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.949983924001095</v>
+        <v>1.025344888860022</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031863815837487</v>
+        <v>1.028843333467778</v>
       </c>
       <c r="J3">
-        <v>0.9933557029171942</v>
+        <v>1.031022072208288</v>
       </c>
       <c r="K3">
-        <v>1.00579585707668</v>
+        <v>1.031498139546625</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9612994646048515</v>
+        <v>1.027980210307358</v>
       </c>
       <c r="N3">
-        <v>0.9947663819548285</v>
+        <v>1.032486241810709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9783574019831489</v>
+        <v>1.027366031667895</v>
       </c>
       <c r="D4">
-        <v>0.9996130279024</v>
+        <v>1.029698729517703</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9582264029364881</v>
+        <v>1.026917845032661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033464944213377</v>
+        <v>1.029069123956171</v>
       </c>
       <c r="J4">
-        <v>0.9983314114655708</v>
+        <v>1.031938641591444</v>
       </c>
       <c r="K4">
-        <v>1.009716125581212</v>
+        <v>1.032198734627715</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9688565913674538</v>
+        <v>1.029424996647089</v>
       </c>
       <c r="N4">
-        <v>0.9997491565800651</v>
+        <v>1.03340411282752</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9809339275303227</v>
+        <v>1.027849665623369</v>
       </c>
       <c r="D5">
-        <v>1.001464205208667</v>
+        <v>1.030045135706145</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9616030833536112</v>
+        <v>1.027577747262248</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034117527284844</v>
+        <v>1.029163311877925</v>
       </c>
       <c r="J5">
-        <v>1.000369194634507</v>
+        <v>1.032322741345528</v>
       </c>
       <c r="K5">
-        <v>1.011320833179926</v>
+        <v>1.032492145381884</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9719512496321516</v>
+        <v>1.030030952622353</v>
       </c>
       <c r="N5">
-        <v>1.001789833634838</v>
+        <v>1.033788758047312</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9813628766044273</v>
+        <v>1.027930801481048</v>
       </c>
       <c r="D6">
-        <v>1.00177242760376</v>
+        <v>1.030103241132478</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9621650931199059</v>
+        <v>1.027688468595669</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034225937737743</v>
+        <v>1.029179083546305</v>
       </c>
       <c r="J6">
-        <v>1.00070830933425</v>
+        <v>1.032387162066416</v>
       </c>
       <c r="K6">
-        <v>1.01158782709911</v>
+        <v>1.032541345131639</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9724662436927561</v>
+        <v>1.030132612329695</v>
       </c>
       <c r="N6">
-        <v>1.002129429916352</v>
+        <v>1.033853270253013</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9783920783152392</v>
+        <v>1.027372498606491</v>
       </c>
       <c r="D7">
-        <v>0.9996379397985112</v>
+        <v>1.029703362089424</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978915</v>
       </c>
       <c r="F7">
-        <v>0.9582718589606802</v>
+        <v>1.026926668004861</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033473742764041</v>
+        <v>1.029070385377577</v>
       </c>
       <c r="J7">
-        <v>0.9983588467037918</v>
+        <v>1.031943778741545</v>
       </c>
       <c r="K7">
-        <v>1.009737733597887</v>
+        <v>1.03220265957462</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459041</v>
       </c>
       <c r="M7">
-        <v>0.968898255979723</v>
+        <v>1.029433099040615</v>
       </c>
       <c r="N7">
-        <v>0.9997766307794715</v>
+        <v>1.033409257272963</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9654056719108649</v>
+        <v>1.025028818339592</v>
       </c>
       <c r="D8">
-        <v>0.9903137853188464</v>
+        <v>1.028023473572437</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674294</v>
       </c>
       <c r="F8">
-        <v>0.9412242499097125</v>
+        <v>1.023730749495833</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030151172623648</v>
+        <v>1.028609796537922</v>
       </c>
       <c r="J8">
-        <v>0.9880672943727051</v>
+        <v>1.030080050436155</v>
       </c>
       <c r="K8">
-        <v>1.001626581057027</v>
+        <v>1.030777468482558</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591053</v>
       </c>
       <c r="M8">
-        <v>0.9532639743783862</v>
+        <v>1.026496998441038</v>
       </c>
       <c r="N8">
-        <v>0.9894704632636173</v>
+        <v>1.031542882259608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9399152929870149</v>
+        <v>1.020859394789898</v>
       </c>
       <c r="D9">
-        <v>0.972057188762476</v>
+        <v>1.025030332405298</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9075695671455176</v>
+        <v>1.018052404185311</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023499986597199</v>
+        <v>1.027774234855501</v>
       </c>
       <c r="J9">
-        <v>0.9677840457165043</v>
+        <v>1.02675515300316</v>
       </c>
       <c r="K9">
-        <v>0.9856204938299682</v>
+        <v>1.028229114859574</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9223642687500033</v>
+        <v>1.021274662798654</v>
       </c>
       <c r="N9">
-        <v>0.9691584100678033</v>
+        <v>1.028213263090887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9205843613478555</v>
+        <v>1.018051643037462</v>
       </c>
       <c r="D10">
-        <v>0.9582677397754054</v>
+        <v>1.023011718088198</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.8818065676824386</v>
+        <v>1.014232986650913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018374554256575</v>
+        <v>1.027200719498039</v>
       </c>
       <c r="J10">
-        <v>0.9523461189052042</v>
+        <v>1.02450986115748</v>
       </c>
       <c r="K10">
-        <v>0.9734337052905768</v>
+        <v>1.0265043732851</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.8986970365477215</v>
+        <v>1.017758202523089</v>
       </c>
       <c r="N10">
-        <v>0.9536985596296762</v>
+        <v>1.025964782673247</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9114756096931247</v>
+        <v>1.016828835561598</v>
       </c>
       <c r="D11">
-        <v>0.951790536980455</v>
+        <v>1.022131904967933</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.8695740827112527</v>
+        <v>1.012570558740999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015942352357152</v>
+        <v>1.026948388725683</v>
       </c>
       <c r="J11">
-        <v>0.9450585304929645</v>
+        <v>1.023530530249539</v>
       </c>
       <c r="K11">
-        <v>0.967682717233288</v>
+        <v>1.025751192905727</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.887460298056521</v>
+        <v>1.016226749161528</v>
       </c>
       <c r="N11">
-        <v>0.946400622005993</v>
+        <v>1.024984061003086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9079596958111134</v>
+        <v>1.016373543750912</v>
       </c>
       <c r="D12">
-        <v>0.9492942198856507</v>
+        <v>1.021804220705268</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.864834163034953</v>
+        <v>1.011951720118581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015001218968322</v>
+        <v>1.02685405423187</v>
       </c>
       <c r="J12">
-        <v>0.9422435716681322</v>
+        <v>1.023165670579036</v>
       </c>
       <c r="K12">
-        <v>0.9654619026521916</v>
+        <v>1.025470454132037</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.8831067824954985</v>
+        <v>1.0156565324943</v>
       </c>
       <c r="N12">
-        <v>0.9435816656167494</v>
+        <v>1.02461868319</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9087202881299385</v>
+        <v>1.016471255052983</v>
       </c>
       <c r="D13">
-        <v>0.9498340574935441</v>
+        <v>1.02187455035416</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367008</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.8658604488597234</v>
+        <v>1.0120845244637</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015204912816753</v>
+        <v>1.026874316917392</v>
       </c>
       <c r="J13">
-        <v>0.9428526180332972</v>
+        <v>1.023243984066479</v>
       </c>
       <c r="K13">
-        <v>0.9659423662696428</v>
+        <v>1.025530717940544</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964245</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.8840493695890252</v>
+        <v>1.015778908468545</v>
       </c>
       <c r="N13">
-        <v>0.9441915768976112</v>
+        <v>1.024697107891579</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9111878352252128</v>
+        <v>1.016791223342367</v>
       </c>
       <c r="D14">
-        <v>0.9515861332912322</v>
+        <v>1.022104836605126</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194315</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.8691865220203989</v>
+        <v>1.012519432938491</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015865366560881</v>
+        <v>1.026940603445543</v>
       </c>
       <c r="J14">
-        <v>0.9448281690775343</v>
+        <v>1.023500393270563</v>
       </c>
       <c r="K14">
-        <v>0.9675009631242104</v>
+        <v>1.025728006933345</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764517</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.8871043171800196</v>
+        <v>1.016179643012606</v>
       </c>
       <c r="N14">
-        <v>0.9461699334509301</v>
+        <v>1.024953881226144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9126898543437342</v>
+        <v>1.016988221461393</v>
       </c>
       <c r="D15">
-        <v>0.952653164004246</v>
+        <v>1.022246606016216</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717471</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.8712086033055273</v>
+        <v>1.012787215551051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016267096714443</v>
+        <v>1.026981364024371</v>
       </c>
       <c r="J15">
-        <v>0.9460304438933965</v>
+        <v>1.023658229907642</v>
       </c>
       <c r="K15">
-        <v>0.9684495789958832</v>
+        <v>1.025849433544034</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767191</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.8889616580650869</v>
+        <v>1.016426366354947</v>
       </c>
       <c r="N15">
-        <v>0.9473739156349337</v>
+        <v>1.02511194200935</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9211716226513182</v>
+        <v>1.018132646017581</v>
       </c>
       <c r="D16">
-        <v>0.9586858140077791</v>
+        <v>1.02306998574418</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.8825930084846892</v>
+        <v>1.014343131388584</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018531035589312</v>
+        <v>1.02721738106261</v>
       </c>
       <c r="J16">
-        <v>0.9528156964439048</v>
+        <v>1.02457470429851</v>
       </c>
       <c r="K16">
-        <v>0.9738043346655283</v>
+        <v>1.026554223848686</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.8994195081159621</v>
+        <v>1.017859650820513</v>
       </c>
       <c r="N16">
-        <v>0.9541688040223429</v>
+        <v>1.026029717898975</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9262809776890744</v>
+        <v>1.018848609419334</v>
       </c>
       <c r="D17">
-        <v>0.9623255117743773</v>
+        <v>1.023584919270207</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.8894246776511976</v>
+        <v>1.015316781854179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019890610460414</v>
+        <v>1.027364353581035</v>
       </c>
       <c r="J17">
-        <v>0.9568997094008973</v>
+        <v>1.025147664710534</v>
       </c>
       <c r="K17">
-        <v>0.9770280113251253</v>
+        <v>1.026994605125327</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.905695598974992</v>
+        <v>1.018756324587293</v>
       </c>
       <c r="N17">
-        <v>0.9582586167461775</v>
+        <v>1.026603491980504</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9291916759877726</v>
+        <v>1.01926554229084</v>
       </c>
       <c r="D18">
-        <v>0.9644007883725214</v>
+        <v>1.023884718856343</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.8933083554315254</v>
+        <v>1.015883869669331</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020663549960178</v>
+        <v>1.027449695229591</v>
       </c>
       <c r="J18">
-        <v>0.9592250812535785</v>
+        <v>1.025481179044447</v>
       </c>
       <c r="K18">
-        <v>0.9788636696023522</v>
+        <v>1.027250860132094</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9092634656956001</v>
+        <v>1.019278492899053</v>
       </c>
       <c r="N18">
-        <v>0.9605872908936133</v>
+        <v>1.026937479943026</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9301729173170317</v>
+        <v>1.019407591788718</v>
       </c>
       <c r="D19">
-        <v>0.9651006840554933</v>
+        <v>1.023986849670841</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.894616317369986</v>
+        <v>1.016077093278413</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020923844781445</v>
+        <v>1.027478729457413</v>
       </c>
       <c r="J19">
-        <v>0.9600087948174575</v>
+        <v>1.02559478358724</v>
       </c>
       <c r="K19">
-        <v>0.9794823534112165</v>
+        <v>1.027338133245428</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9104650605140246</v>
+        <v>1.01945639657296</v>
       </c>
       <c r="N19">
-        <v>0.9613721174206462</v>
+        <v>1.0270512458173</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9257401172267314</v>
+        <v>1.018771863508937</v>
       </c>
       <c r="D20">
-        <v>0.9619400306379408</v>
+        <v>1.023529729061246</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.8887023785867789</v>
+        <v>1.015212404155686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019746853770103</v>
+        <v>1.02734862468978</v>
       </c>
       <c r="J20">
-        <v>0.9564675146986465</v>
+        <v>1.025086262388301</v>
       </c>
       <c r="K20">
-        <v>0.9766868450994675</v>
+        <v>1.02694741981565</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9050320347585322</v>
+        <v>1.018660207834988</v>
       </c>
       <c r="N20">
-        <v>0.957825808277876</v>
+        <v>1.026542002459931</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9104650690831384</v>
+        <v>1.016697030898014</v>
       </c>
       <c r="D21">
-        <v>0.9510728231285832</v>
+        <v>1.022037047568816</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148885</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.868212826337572</v>
+        <v>1.012391400578396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015671975040878</v>
+        <v>1.026921100548515</v>
       </c>
       <c r="J21">
-        <v>0.9442495678079509</v>
+        <v>1.023424917515246</v>
       </c>
       <c r="K21">
-        <v>0.9670444602788357</v>
+        <v>1.025669937286123</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.8862099725692858</v>
+        <v>1.016061674763669</v>
       </c>
       <c r="N21">
-        <v>0.9455905105011774</v>
+        <v>1.024878298286597</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9000781262268401</v>
+        <v>1.015386198853587</v>
       </c>
       <c r="D22">
-        <v>0.943706447878784</v>
+        <v>1.021093423371851</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.8541684826856661</v>
+        <v>1.010609953141295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012887497396746</v>
+        <v>1.026648779927287</v>
       </c>
       <c r="J22">
-        <v>0.9359295457301205</v>
+        <v>1.022374030012878</v>
       </c>
       <c r="K22">
-        <v>0.9604821292800234</v>
+        <v>1.024861088056267</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.8733123204044531</v>
+        <v>1.014419944121872</v>
       </c>
       <c r="N22">
-        <v>0.9372586730376766</v>
+        <v>1.023825918403436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9056677735329672</v>
+        <v>1.01608170331368</v>
       </c>
       <c r="D23">
-        <v>0.947668139318715</v>
+        <v>1.021594148183446</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.8617385170752724</v>
+        <v>1.011555084800407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014387102062817</v>
+        <v>1.026793478339864</v>
       </c>
       <c r="J23">
-        <v>0.9404080120454253</v>
+        <v>1.022931734272548</v>
       </c>
       <c r="K23">
-        <v>0.9640139877792838</v>
+        <v>1.025290415923805</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.880263730682756</v>
+        <v>1.015291023201371</v>
       </c>
       <c r="N23">
-        <v>0.9417434992888364</v>
+        <v>1.024384414667125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9259847220135174</v>
+        <v>1.018806543771555</v>
       </c>
       <c r="D24">
-        <v>0.9621143593364114</v>
+        <v>1.023554668847396</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.8890290644580195</v>
+        <v>1.015259570495165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019811872862885</v>
+        <v>1.027355733087894</v>
       </c>
       <c r="J24">
-        <v>0.9566629790399855</v>
+        <v>1.025114009566658</v>
       </c>
       <c r="K24">
-        <v>0.9768411404692091</v>
+        <v>1.026968742716263</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9053321556246502</v>
+        <v>1.018703641471348</v>
       </c>
       <c r="N24">
-        <v>0.9580215502009999</v>
+        <v>1.026569789042463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9468664212238506</v>
+        <v>1.021942135555366</v>
       </c>
       <c r="D25">
-        <v>0.9770283912464416</v>
+        <v>1.025808141802645</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9167779935878745</v>
+        <v>1.019526178459521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025327824986247</v>
+        <v>1.027993123382206</v>
       </c>
       <c r="J25">
-        <v>0.9733245100758633</v>
+        <v>1.027619680805744</v>
       </c>
       <c r="K25">
-        <v>0.9899940962948975</v>
+        <v>1.028892407345687</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9308219910377243</v>
+        <v>1.022630745666791</v>
       </c>
       <c r="N25">
-        <v>0.9747067425220527</v>
+        <v>1.029079018622113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024422830022724</v>
+        <v>0.9619029098445582</v>
       </c>
       <c r="D2">
-        <v>1.027588801413152</v>
+        <v>0.9878010570913797</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.022904906233393</v>
+        <v>0.9366164691390081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028489610443474</v>
+        <v>1.029246398086893</v>
       </c>
       <c r="J2">
-        <v>1.029597529870352</v>
+        <v>0.9852860335707591</v>
       </c>
       <c r="K2">
-        <v>1.030408090989892</v>
+        <v>0.9994330000479934</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.025737912806098</v>
+        <v>0.9490356504597351</v>
       </c>
       <c r="N2">
-        <v>1.031059676459259</v>
+        <v>0.9866852527523171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026212814749323</v>
+        <v>0.9720736626572645</v>
       </c>
       <c r="D3">
-        <v>1.028872378576037</v>
+        <v>0.9950998921113624</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.025344888860022</v>
+        <v>0.9499839240010968</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028843333467778</v>
+        <v>1.031863815837488</v>
       </c>
       <c r="J3">
-        <v>1.031022072208288</v>
+        <v>0.9933557029171952</v>
       </c>
       <c r="K3">
-        <v>1.031498139546625</v>
+        <v>1.005795857076681</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.027980210307358</v>
+        <v>0.961299464604853</v>
       </c>
       <c r="N3">
-        <v>1.032486241810709</v>
+        <v>0.9947663819548296</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027366031667895</v>
+        <v>0.9783574019831496</v>
       </c>
       <c r="D4">
-        <v>1.029698729517703</v>
+        <v>0.9996130279024005</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.026917845032661</v>
+        <v>0.9582264029364884</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029069123956171</v>
+        <v>1.033464944213378</v>
       </c>
       <c r="J4">
-        <v>1.031938641591444</v>
+        <v>0.9983314114655713</v>
       </c>
       <c r="K4">
-        <v>1.032198734627715</v>
+        <v>1.009716125581212</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.029424996647089</v>
+        <v>0.9688565913674543</v>
       </c>
       <c r="N4">
-        <v>1.03340411282752</v>
+        <v>0.9997491565800657</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027849665623369</v>
+        <v>0.9809339275303223</v>
       </c>
       <c r="D5">
-        <v>1.030045135706145</v>
+        <v>1.001464205208667</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.027577747262248</v>
+        <v>0.9616030833536111</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029163311877925</v>
+        <v>1.034117527284844</v>
       </c>
       <c r="J5">
-        <v>1.032322741345528</v>
+        <v>1.000369194634506</v>
       </c>
       <c r="K5">
-        <v>1.032492145381884</v>
+        <v>1.011320833179925</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.030030952622353</v>
+        <v>0.9719512496321515</v>
       </c>
       <c r="N5">
-        <v>1.033788758047312</v>
+        <v>1.001789833634838</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027930801481048</v>
+        <v>0.9813628766044267</v>
       </c>
       <c r="D6">
-        <v>1.030103241132478</v>
+        <v>1.001772427603759</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.027688468595669</v>
+        <v>0.9621650931199051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029179083546305</v>
+        <v>1.034225937737743</v>
       </c>
       <c r="J6">
-        <v>1.032387162066416</v>
+        <v>1.000708309334249</v>
       </c>
       <c r="K6">
-        <v>1.032541345131639</v>
+        <v>1.011587827099109</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.030132612329695</v>
+        <v>0.9724662436927555</v>
       </c>
       <c r="N6">
-        <v>1.033853270253013</v>
+        <v>1.002129429916351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027372498606491</v>
+        <v>0.9783920783152396</v>
       </c>
       <c r="D7">
-        <v>1.029703362089424</v>
+        <v>0.9996379397985116</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978915</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.026926668004861</v>
+        <v>0.9582718589606807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029070385377577</v>
+        <v>1.033473742764041</v>
       </c>
       <c r="J7">
-        <v>1.031943778741545</v>
+        <v>0.9983588467037924</v>
       </c>
       <c r="K7">
-        <v>1.03220265957462</v>
+        <v>1.009737733597888</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459041</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.029433099040615</v>
+        <v>0.9688982559797233</v>
       </c>
       <c r="N7">
-        <v>1.033409257272963</v>
+        <v>0.9997766307794722</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025028818339592</v>
+        <v>0.9654056719108628</v>
       </c>
       <c r="D8">
-        <v>1.028023473572437</v>
+        <v>0.9903137853188447</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674294</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.023730749495833</v>
+        <v>0.9412242499097098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028609796537922</v>
+        <v>1.030151172623647</v>
       </c>
       <c r="J8">
-        <v>1.030080050436155</v>
+        <v>0.9880672943727031</v>
       </c>
       <c r="K8">
-        <v>1.030777468482558</v>
+        <v>1.001626581057026</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591053</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.026496998441038</v>
+        <v>0.9532639743783837</v>
       </c>
       <c r="N8">
-        <v>1.031542882259608</v>
+        <v>0.9894704632636151</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020859394789898</v>
+        <v>0.9399152929870169</v>
       </c>
       <c r="D9">
-        <v>1.025030332405298</v>
+        <v>0.9720571887624779</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.018052404185311</v>
+        <v>0.9075695671455198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027774234855501</v>
+        <v>1.0234999865972</v>
       </c>
       <c r="J9">
-        <v>1.02675515300316</v>
+        <v>0.9677840457165064</v>
       </c>
       <c r="K9">
-        <v>1.028229114859574</v>
+        <v>0.98562049382997</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.021274662798654</v>
+        <v>0.9223642687500058</v>
       </c>
       <c r="N9">
-        <v>1.028213263090887</v>
+        <v>0.9691584100678055</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018051643037462</v>
+        <v>0.920584361347856</v>
       </c>
       <c r="D10">
-        <v>1.023011718088198</v>
+        <v>0.9582677397754059</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547166</v>
       </c>
       <c r="F10">
-        <v>1.014232986650913</v>
+        <v>0.8818065676824391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027200719498039</v>
+        <v>1.018374554256575</v>
       </c>
       <c r="J10">
-        <v>1.02450986115748</v>
+        <v>0.9523461189052047</v>
       </c>
       <c r="K10">
-        <v>1.0265043732851</v>
+        <v>0.9734337052905775</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689268</v>
       </c>
       <c r="M10">
-        <v>1.017758202523089</v>
+        <v>0.898697036547722</v>
       </c>
       <c r="N10">
-        <v>1.025964782673247</v>
+        <v>0.9536985596296768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016828835561598</v>
+        <v>0.9114756096931255</v>
       </c>
       <c r="D11">
-        <v>1.022131904967933</v>
+        <v>0.9517905369804556</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016255</v>
       </c>
       <c r="F11">
-        <v>1.012570558740999</v>
+        <v>0.8695740827112537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026948388725683</v>
+        <v>1.015942352357152</v>
       </c>
       <c r="J11">
-        <v>1.023530530249539</v>
+        <v>0.9450585304929652</v>
       </c>
       <c r="K11">
-        <v>1.025751192905727</v>
+        <v>0.9676827172332886</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.949155612541657</v>
       </c>
       <c r="M11">
-        <v>1.016226749161528</v>
+        <v>0.8874602980565218</v>
       </c>
       <c r="N11">
-        <v>1.024984061003086</v>
+        <v>0.9464006220059937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016373543750912</v>
+        <v>0.9079596958111152</v>
       </c>
       <c r="D12">
-        <v>1.021804220705268</v>
+        <v>0.9492942198856525</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.011951720118581</v>
+        <v>0.8648341630349554</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02685405423187</v>
+        <v>1.015001218968322</v>
       </c>
       <c r="J12">
-        <v>1.023165670579036</v>
+        <v>0.9422435716681341</v>
       </c>
       <c r="K12">
-        <v>1.025470454132037</v>
+        <v>0.9654619026521934</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.0156565324943</v>
+        <v>0.8831067824955008</v>
       </c>
       <c r="N12">
-        <v>1.02461868319</v>
+        <v>0.9435816656167513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016471255052983</v>
+        <v>0.9087202881299391</v>
       </c>
       <c r="D13">
-        <v>1.02187455035416</v>
+        <v>0.9498340574935445</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.0120845244637</v>
+        <v>0.8658604488597245</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026874316917392</v>
+        <v>1.015204912816753</v>
       </c>
       <c r="J13">
-        <v>1.023243984066479</v>
+        <v>0.9428526180332978</v>
       </c>
       <c r="K13">
-        <v>1.025530717940544</v>
+        <v>0.9659423662696435</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.015778908468545</v>
+        <v>0.8840493695890261</v>
       </c>
       <c r="N13">
-        <v>1.024697107891579</v>
+        <v>0.944191576897612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016791223342367</v>
+        <v>0.9111878352252127</v>
       </c>
       <c r="D14">
-        <v>1.022104836605126</v>
+        <v>0.9515861332912319</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.012519432938491</v>
+        <v>0.8691865220203983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026940603445543</v>
+        <v>1.015865366560881</v>
       </c>
       <c r="J14">
-        <v>1.023500393270563</v>
+        <v>0.9448281690775342</v>
       </c>
       <c r="K14">
-        <v>1.025728006933345</v>
+        <v>0.9675009631242102</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.016179643012606</v>
+        <v>0.887104317180019</v>
       </c>
       <c r="N14">
-        <v>1.024953881226144</v>
+        <v>0.9461699334509298</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016988221461393</v>
+        <v>0.9126898543437368</v>
       </c>
       <c r="D15">
-        <v>1.022246606016216</v>
+        <v>0.9526531640042484</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717476</v>
       </c>
       <c r="F15">
-        <v>1.012787215551051</v>
+        <v>0.8712086033055303</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026981364024371</v>
+        <v>1.016267096714444</v>
       </c>
       <c r="J15">
-        <v>1.023658229907642</v>
+        <v>0.9460304438933994</v>
       </c>
       <c r="K15">
-        <v>1.025849433544034</v>
+        <v>0.9684495789958856</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767194</v>
       </c>
       <c r="M15">
-        <v>1.016426366354947</v>
+        <v>0.8889616580650898</v>
       </c>
       <c r="N15">
-        <v>1.02511194200935</v>
+        <v>0.9473739156349366</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018132646017581</v>
+        <v>0.9211716226513175</v>
       </c>
       <c r="D16">
-        <v>1.02306998574418</v>
+        <v>0.9586858140077786</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.014343131388584</v>
+        <v>0.8825930084846885</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02721738106261</v>
+        <v>1.018531035589311</v>
       </c>
       <c r="J16">
-        <v>1.02457470429851</v>
+        <v>0.9528156964439043</v>
       </c>
       <c r="K16">
-        <v>1.026554223848686</v>
+        <v>0.9738043346655278</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.017859650820513</v>
+        <v>0.8994195081159616</v>
       </c>
       <c r="N16">
-        <v>1.026029717898975</v>
+        <v>0.9541688040223427</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018848609419334</v>
+        <v>0.9262809776890749</v>
       </c>
       <c r="D17">
-        <v>1.023584919270207</v>
+        <v>0.9623255117743775</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.015316781854179</v>
+        <v>0.8894246776511983</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027364353581035</v>
+        <v>1.019890610460414</v>
       </c>
       <c r="J17">
-        <v>1.025147664710534</v>
+        <v>0.9568997094008979</v>
       </c>
       <c r="K17">
-        <v>1.026994605125327</v>
+        <v>0.9770280113251256</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.018756324587293</v>
+        <v>0.905695598974993</v>
       </c>
       <c r="N17">
-        <v>1.026603491980504</v>
+        <v>0.9582586167461782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01926554229084</v>
+        <v>0.9291916759877702</v>
       </c>
       <c r="D18">
-        <v>1.023884718856343</v>
+        <v>0.9644007883725196</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.939383286721568</v>
       </c>
       <c r="F18">
-        <v>1.015883869669331</v>
+        <v>0.8933083554315221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027449695229591</v>
+        <v>1.020663549960177</v>
       </c>
       <c r="J18">
-        <v>1.025481179044447</v>
+        <v>0.9592250812535763</v>
       </c>
       <c r="K18">
-        <v>1.027250860132094</v>
+        <v>0.9788636696023504</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.019278492899053</v>
+        <v>0.909263465695597</v>
       </c>
       <c r="N18">
-        <v>1.026937479943026</v>
+        <v>0.9605872908936108</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019407591788718</v>
+        <v>0.9301729173170322</v>
       </c>
       <c r="D19">
-        <v>1.023986849670841</v>
+        <v>0.9651006840554934</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814680088</v>
       </c>
       <c r="F19">
-        <v>1.016077093278413</v>
+        <v>0.8946163173699861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027478729457413</v>
+        <v>1.020923844781445</v>
       </c>
       <c r="J19">
-        <v>1.02559478358724</v>
+        <v>0.9600087948174576</v>
       </c>
       <c r="K19">
-        <v>1.027338133245428</v>
+        <v>0.9794823534112167</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493812708</v>
       </c>
       <c r="M19">
-        <v>1.01945639657296</v>
+        <v>0.9104650605140248</v>
       </c>
       <c r="N19">
-        <v>1.0270512458173</v>
+        <v>0.9613721174206465</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018771863508937</v>
+        <v>0.9257401172267329</v>
       </c>
       <c r="D20">
-        <v>1.023529729061246</v>
+        <v>0.9619400306379421</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.015212404155686</v>
+        <v>0.8887023785867805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02734862468978</v>
+        <v>1.019746853770103</v>
       </c>
       <c r="J20">
-        <v>1.025086262388301</v>
+        <v>0.9564675146986481</v>
       </c>
       <c r="K20">
-        <v>1.02694741981565</v>
+        <v>0.9766868450994689</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.018660207834988</v>
+        <v>0.9050320347585339</v>
       </c>
       <c r="N20">
-        <v>1.026542002459931</v>
+        <v>0.9578258082778777</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016697030898014</v>
+        <v>0.9104650690831391</v>
       </c>
       <c r="D21">
-        <v>1.022037047568816</v>
+        <v>0.9510728231285837</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148886</v>
       </c>
       <c r="F21">
-        <v>1.012391400578396</v>
+        <v>0.868212826337573</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026921100548515</v>
+        <v>1.015671975040878</v>
       </c>
       <c r="J21">
-        <v>1.023424917515246</v>
+        <v>0.9442495678079514</v>
       </c>
       <c r="K21">
-        <v>1.025669937286123</v>
+        <v>0.9670444602788364</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>1.016061674763669</v>
+        <v>0.8862099725692867</v>
       </c>
       <c r="N21">
-        <v>1.024878298286597</v>
+        <v>0.9455905105011779</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015386198853587</v>
+        <v>0.9000781262268409</v>
       </c>
       <c r="D22">
-        <v>1.021093423371851</v>
+        <v>0.9437064478787851</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.010609953141295</v>
+        <v>0.8541684826856677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026648779927287</v>
+        <v>1.012887497396746</v>
       </c>
       <c r="J22">
-        <v>1.022374030012878</v>
+        <v>0.9359295457301211</v>
       </c>
       <c r="K22">
-        <v>1.024861088056267</v>
+        <v>0.9604821292800241</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.014419944121872</v>
+        <v>0.8733123204044546</v>
       </c>
       <c r="N22">
-        <v>1.023825918403436</v>
+        <v>0.9372586730376772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01608170331368</v>
+        <v>0.9056677735329671</v>
       </c>
       <c r="D23">
-        <v>1.021594148183446</v>
+        <v>0.9476681393187153</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.011555084800407</v>
+        <v>0.8617385170752718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026793478339864</v>
+        <v>1.014387102062817</v>
       </c>
       <c r="J23">
-        <v>1.022931734272548</v>
+        <v>0.9404080120454253</v>
       </c>
       <c r="K23">
-        <v>1.025290415923805</v>
+        <v>0.9640139877792838</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.015291023201371</v>
+        <v>0.8802637306827555</v>
       </c>
       <c r="N23">
-        <v>1.024384414667125</v>
+        <v>0.9417434992888366</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018806543771555</v>
+        <v>0.9259847220135182</v>
       </c>
       <c r="D24">
-        <v>1.023554668847396</v>
+        <v>0.9621143593364119</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>1.015259570495165</v>
+        <v>0.8890290644580207</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027355733087894</v>
+        <v>1.019811872862885</v>
       </c>
       <c r="J24">
-        <v>1.025114009566658</v>
+        <v>0.9566629790399864</v>
       </c>
       <c r="K24">
-        <v>1.026968742716263</v>
+        <v>0.9768411404692096</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>1.018703641471348</v>
+        <v>0.9053321556246514</v>
       </c>
       <c r="N24">
-        <v>1.026569789042463</v>
+        <v>0.9580215502010008</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021942135555366</v>
+        <v>0.9468664212238507</v>
       </c>
       <c r="D25">
-        <v>1.025808141802645</v>
+        <v>0.9770283912464418</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717737</v>
       </c>
       <c r="F25">
-        <v>1.019526178459521</v>
+        <v>0.9167779935878748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027993123382206</v>
+        <v>1.025327824986248</v>
       </c>
       <c r="J25">
-        <v>1.027619680805744</v>
+        <v>0.9733245100758636</v>
       </c>
       <c r="K25">
-        <v>1.028892407345687</v>
+        <v>0.9899940962948977</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005615</v>
       </c>
       <c r="M25">
-        <v>1.022630745666791</v>
+        <v>0.9308219910377247</v>
       </c>
       <c r="N25">
-        <v>1.029079018622113</v>
+        <v>0.974706742522053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9619029098445582</v>
+        <v>0.9996497777179351</v>
       </c>
       <c r="D2">
-        <v>0.9878010570913797</v>
+        <v>1.023416893675827</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9366164691390081</v>
+        <v>1.028037318907923</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029246398086893</v>
+        <v>1.044408564137034</v>
       </c>
       <c r="J2">
-        <v>0.9852860335707591</v>
+        <v>1.021840968922484</v>
       </c>
       <c r="K2">
-        <v>0.9994330000479934</v>
+        <v>1.034559355812157</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9490356504597351</v>
+        <v>1.039119393914685</v>
       </c>
       <c r="N2">
-        <v>0.9866852527523171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011243260942137</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039532766076619</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035506698076518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9720736626572645</v>
+        <v>1.002942766688535</v>
       </c>
       <c r="D3">
-        <v>0.9950998921113624</v>
+        <v>1.025537829358035</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9499839240010968</v>
+        <v>1.030381318682866</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031863815837488</v>
+        <v>1.044848216397309</v>
       </c>
       <c r="J3">
-        <v>0.9933557029171952</v>
+        <v>1.023353529126862</v>
       </c>
       <c r="K3">
-        <v>1.005795857076681</v>
+        <v>1.035854052308731</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.961299464604853</v>
+        <v>1.040639679961513</v>
       </c>
       <c r="N3">
-        <v>0.9947663819548296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011753873496295</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040735971161568</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036419491239278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9783574019831496</v>
+        <v>1.005039741345792</v>
       </c>
       <c r="D4">
-        <v>0.9996130279024005</v>
+        <v>1.026891817273309</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9582264029364884</v>
+        <v>1.031880424451849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033464944213378</v>
+        <v>1.045118594305918</v>
       </c>
       <c r="J4">
-        <v>0.9983314114655713</v>
+        <v>1.024315402728884</v>
       </c>
       <c r="K4">
-        <v>1.009716125581212</v>
+        <v>1.036676163910014</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9688565913674543</v>
+        <v>1.041608724043899</v>
       </c>
       <c r="N4">
-        <v>0.9997491565800657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012078547490968</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041502903922009</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037001697917775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9809339275303223</v>
+        <v>1.005916211618124</v>
       </c>
       <c r="D5">
-        <v>1.001464205208667</v>
+        <v>1.027460405996788</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9616030833536111</v>
+        <v>1.032509176269154</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034117527284844</v>
+        <v>1.045230570424934</v>
       </c>
       <c r="J5">
-        <v>1.000369194634506</v>
+        <v>1.024718536483854</v>
       </c>
       <c r="K5">
-        <v>1.011320833179925</v>
+        <v>1.037021746925667</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9719512496321515</v>
+        <v>1.04201528590286</v>
       </c>
       <c r="N5">
-        <v>1.001789833634838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012214834374056</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041824669855785</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037253252785886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9813628766044267</v>
+        <v>1.006066306776971</v>
       </c>
       <c r="D6">
-        <v>1.001772427603759</v>
+        <v>1.027560114603989</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9621650931199051</v>
+        <v>1.03261773508374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034225937737743</v>
+        <v>1.045251196859085</v>
       </c>
       <c r="J6">
-        <v>1.000708309334249</v>
+        <v>1.024789300837644</v>
       </c>
       <c r="K6">
-        <v>1.011587827099109</v>
+        <v>1.037083999497185</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9724662436927555</v>
+        <v>1.042086542199155</v>
       </c>
       <c r="N6">
-        <v>1.002129429916351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012239026754778</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041881064331121</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037306047573967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9783920783152396</v>
+        <v>1.005060593180781</v>
       </c>
       <c r="D7">
-        <v>0.9996379397985116</v>
+        <v>1.026911476770027</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9582718589606807</v>
+        <v>1.031897503858607</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033473742764041</v>
+        <v>1.045125529037225</v>
       </c>
       <c r="J7">
-        <v>0.9983588467037924</v>
+        <v>1.024329684737753</v>
       </c>
       <c r="K7">
-        <v>1.009737733597888</v>
+        <v>1.036692705025432</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9688982559797233</v>
+        <v>1.041622735199818</v>
       </c>
       <c r="N7">
-        <v>0.9997766307794722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012084110314619</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041513992797013</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037033580088043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9654056719108628</v>
+        <v>1.00078116603232</v>
       </c>
       <c r="D8">
-        <v>0.9903137853188447</v>
+        <v>1.024152450559938</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9412242499097098</v>
+        <v>1.028843933031078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030151172623647</v>
+        <v>1.044566820757053</v>
       </c>
       <c r="J8">
-        <v>0.9880672943727031</v>
+        <v>1.022366732566391</v>
       </c>
       <c r="K8">
-        <v>1.001626581057026</v>
+        <v>1.03501490577222</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9532639743783837</v>
+        <v>1.039646870728044</v>
       </c>
       <c r="N8">
-        <v>0.9894704632636151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011421718300676</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039950229048019</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03585180867609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9399152929870169</v>
+        <v>0.9929567409964977</v>
       </c>
       <c r="D9">
-        <v>0.9720571887624779</v>
+        <v>1.019126564489261</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9075695671455198</v>
+        <v>1.023310062254291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0234999865972</v>
+        <v>1.043464376006694</v>
       </c>
       <c r="J9">
-        <v>0.9677840457165064</v>
+        <v>1.018760690198058</v>
       </c>
       <c r="K9">
-        <v>0.98562049382997</v>
+        <v>1.031916765339889</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9223642687500058</v>
+        <v>1.03603594096237</v>
       </c>
       <c r="N9">
-        <v>0.9691584100678055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010203391778429</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037092412365941</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033658016800515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.920584361347856</v>
+        <v>0.9875969652775125</v>
       </c>
       <c r="D10">
-        <v>0.9582677397754059</v>
+        <v>1.01573081530911</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547166</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.8818065676824391</v>
+        <v>1.019638475385705</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018374554256575</v>
+        <v>1.042680091276512</v>
       </c>
       <c r="J10">
-        <v>0.9523461189052047</v>
+        <v>1.016311471150901</v>
       </c>
       <c r="K10">
-        <v>0.9734337052905775</v>
+        <v>1.029821737291641</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689268</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.898697036547722</v>
+        <v>1.033661978658043</v>
       </c>
       <c r="N10">
-        <v>0.9536985596296768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009379613825545</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035265208665791</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032193575140435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9114756096931255</v>
+        <v>0.9856293773428814</v>
       </c>
       <c r="D11">
-        <v>0.9517905369804556</v>
+        <v>1.014684630202301</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016255</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8695740827112537</v>
+        <v>1.0189449230866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015942352357152</v>
+        <v>1.042522822400226</v>
       </c>
       <c r="J11">
-        <v>0.9450585304929652</v>
+        <v>1.015612456864485</v>
       </c>
       <c r="K11">
-        <v>0.9676827172332886</v>
+        <v>1.029334829385352</v>
       </c>
       <c r="L11">
-        <v>0.949155612541657</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.8874602980565218</v>
+        <v>1.033518196178384</v>
       </c>
       <c r="N11">
-        <v>0.9464006220059937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009175407237635</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035589088145374</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031882292249589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9079596958111152</v>
+        <v>0.9850298455704422</v>
       </c>
       <c r="D12">
-        <v>0.9492942198856525</v>
+        <v>1.01444507298139</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8648341630349554</v>
+        <v>1.019009151618948</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015001218968322</v>
+        <v>1.042529915464119</v>
       </c>
       <c r="J12">
-        <v>0.9422435716681341</v>
+        <v>1.015481565639178</v>
       </c>
       <c r="K12">
-        <v>0.9654619026521934</v>
+        <v>1.029300663889247</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.8831067824955008</v>
+        <v>1.033781008288613</v>
       </c>
       <c r="N12">
-        <v>0.9435816656167513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009155824654064</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036124260038459</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03185813595247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9087202881299391</v>
+        <v>0.9854555472822959</v>
       </c>
       <c r="D13">
-        <v>0.9498340574935445</v>
+        <v>1.014826627363328</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.8658604488597245</v>
+        <v>1.019684350304579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015204912816753</v>
+        <v>1.042675874356116</v>
       </c>
       <c r="J13">
-        <v>0.9428526180332978</v>
+        <v>1.015793544680325</v>
       </c>
       <c r="K13">
-        <v>0.9659423662696435</v>
+        <v>1.029632081172025</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.8840493695890261</v>
+        <v>1.034401100624464</v>
       </c>
       <c r="N13">
-        <v>0.944191576897612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009282845863787</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036891851142885</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032089957932133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9111878352252127</v>
+        <v>0.9862183370103742</v>
       </c>
       <c r="D14">
-        <v>0.9515861332912319</v>
+        <v>1.015375605471037</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8691865220203983</v>
+        <v>1.02043299412991</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015865366560881</v>
+        <v>1.04284079939772</v>
       </c>
       <c r="J14">
-        <v>0.9448281690775342</v>
+        <v>1.016212396294853</v>
       </c>
       <c r="K14">
-        <v>0.9675009631242102</v>
+        <v>1.030029867537873</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.887104317180019</v>
+        <v>1.034996072024484</v>
       </c>
       <c r="N14">
-        <v>0.9461699334509298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009438184661335</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037535797046323</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032372638234756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126898543437368</v>
+        <v>0.9866325792750753</v>
       </c>
       <c r="D15">
-        <v>0.9526531640042484</v>
+        <v>1.015652960126656</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717476</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.8712086033055303</v>
+        <v>1.020764931318036</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016267096714444</v>
+        <v>1.042915016025985</v>
       </c>
       <c r="J15">
-        <v>0.9460304438933994</v>
+        <v>1.016417703110103</v>
       </c>
       <c r="K15">
-        <v>0.9684495789958856</v>
+        <v>1.030215278402846</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767194</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>0.8889616580650898</v>
+        <v>1.035235781833202</v>
       </c>
       <c r="N15">
-        <v>0.9473739156349366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009510536893645</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037762857676148</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032509624409411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9211716226513175</v>
+        <v>0.9888188129316726</v>
       </c>
       <c r="D16">
-        <v>0.9586858140077786</v>
+        <v>1.017022845083521</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.8825930084846885</v>
+        <v>1.022223710871824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018531035589311</v>
+        <v>1.043235698182795</v>
       </c>
       <c r="J16">
-        <v>0.9528156964439043</v>
+        <v>1.017404951679469</v>
       </c>
       <c r="K16">
-        <v>0.9738043346655278</v>
+        <v>1.031055605808001</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.8994195081159616</v>
+        <v>1.036167442384932</v>
       </c>
       <c r="N16">
-        <v>0.9541688040223427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009838565630448</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038460458838394</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033106950937793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9262809776890749</v>
+        <v>0.9900989174083527</v>
       </c>
       <c r="D17">
-        <v>0.9623255117743775</v>
+        <v>1.017787895226777</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.8894246776511983</v>
+        <v>1.022946699932625</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019890610460414</v>
+        <v>1.043392956682822</v>
       </c>
       <c r="J17">
-        <v>0.9568997094008979</v>
+        <v>1.017942969692597</v>
       </c>
       <c r="K17">
-        <v>0.9770280113251256</v>
+        <v>1.031491064472924</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.905695598974993</v>
+        <v>1.036564007115169</v>
       </c>
       <c r="N17">
-        <v>0.9582586167461782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010008795727362</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038644645373485</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033417438571315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9291916759877702</v>
+        <v>0.9907057711915799</v>
       </c>
       <c r="D18">
-        <v>0.9644007883725196</v>
+        <v>1.018078984358353</v>
       </c>
       <c r="E18">
-        <v>0.939383286721568</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.8933083554315221</v>
+        <v>1.023051458373345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020663549960177</v>
+        <v>1.043414884744487</v>
       </c>
       <c r="J18">
-        <v>0.9592250812535763</v>
+        <v>1.018124560718237</v>
       </c>
       <c r="K18">
-        <v>0.9788636696023504</v>
+        <v>1.031592781116486</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.909263465695597</v>
+        <v>1.036483812785917</v>
       </c>
       <c r="N18">
-        <v>0.9605872908936108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010051265477667</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038343054723062</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033477675837739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9301729173170322</v>
+        <v>0.9907086437414117</v>
       </c>
       <c r="D19">
-        <v>0.9651006840554934</v>
+        <v>1.01795112549538</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680088</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.8946163173699861</v>
+        <v>1.02259528102041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020923844781445</v>
+        <v>1.04332104555123</v>
       </c>
       <c r="J19">
-        <v>0.9600087948174576</v>
+        <v>1.017990611843519</v>
       </c>
       <c r="K19">
-        <v>0.9794823534112167</v>
+        <v>1.031404108235655</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812708</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9104650605140248</v>
+        <v>1.035972549233987</v>
       </c>
       <c r="N19">
-        <v>0.9613721174206465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00998317047103</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037612454782229</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033350697315985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9257401172267329</v>
+        <v>0.9890084175389661</v>
       </c>
       <c r="D20">
-        <v>0.9619400306379421</v>
+        <v>1.01663970098249</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.8887023785867805</v>
+        <v>1.020612215743083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019746853770103</v>
+        <v>1.04290105856339</v>
       </c>
       <c r="J20">
-        <v>0.9564675146986481</v>
+        <v>1.016969721889975</v>
       </c>
       <c r="K20">
-        <v>0.9766868450994689</v>
+        <v>1.030396138348093</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9050320347585339</v>
+        <v>1.034302055080691</v>
       </c>
       <c r="N20">
-        <v>0.9578258082778777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009603359929572</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035761173470063</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032641954885482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9104650690831391</v>
+        <v>0.9849146673884743</v>
       </c>
       <c r="D21">
-        <v>0.9510728231285837</v>
+        <v>1.014014040653664</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148886</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.868212826337573</v>
+        <v>1.01769479149951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015671975040878</v>
+        <v>1.042257197531536</v>
       </c>
       <c r="J21">
-        <v>0.9442495678079514</v>
+        <v>1.015056926102756</v>
       </c>
       <c r="K21">
-        <v>0.9670444602788364</v>
+        <v>1.028734689354943</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.8862099725692867</v>
+        <v>1.032348510119796</v>
       </c>
       <c r="N21">
-        <v>0.9455905105011779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008954169537472</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034174038203073</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031470475656676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9000781262268409</v>
+        <v>0.9823102168247181</v>
       </c>
       <c r="D22">
-        <v>0.9437064478787851</v>
+        <v>1.012354834832517</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8541684826856677</v>
+        <v>1.015886104481143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012887497396746</v>
+        <v>1.041842744118994</v>
       </c>
       <c r="J22">
-        <v>0.9359295457301211</v>
+        <v>1.013846957479268</v>
       </c>
       <c r="K22">
-        <v>0.9604821292800241</v>
+        <v>1.027685449961256</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8733123204044546</v>
+        <v>1.031149289665828</v>
       </c>
       <c r="N22">
-        <v>0.9372586730376772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008544326789491</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033224926552235</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03071504261977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9056677735329671</v>
+        <v>0.9836867832089136</v>
       </c>
       <c r="D23">
-        <v>0.9476681393187153</v>
+        <v>1.013225882730628</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8617385170752718</v>
+        <v>1.016839306700737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014387102062817</v>
+        <v>1.042059083889122</v>
       </c>
       <c r="J23">
-        <v>0.9404080120454253</v>
+        <v>1.014482340492865</v>
       </c>
       <c r="K23">
-        <v>0.9640139877792838</v>
+        <v>1.028232956099603</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.8802637306827555</v>
+        <v>1.031779132513986</v>
       </c>
       <c r="N23">
-        <v>0.9417434992888366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008758734386514</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033723409858597</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031092477691399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9259847220135182</v>
+        <v>0.9890236808072165</v>
       </c>
       <c r="D24">
-        <v>0.9621143593364119</v>
+        <v>1.016622291780557</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.8890290644580207</v>
+        <v>1.020555877558001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019811872862885</v>
+        <v>1.042884243963493</v>
       </c>
       <c r="J24">
-        <v>0.9566629790399864</v>
+        <v>1.016950901828835</v>
       </c>
       <c r="K24">
-        <v>0.9768411404692096</v>
+        <v>1.03036365675782</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9053321556246514</v>
+        <v>1.034231375572475</v>
       </c>
       <c r="N24">
-        <v>0.9580215502010008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009593067087753</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035664211623326</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032591464294601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9468664212238507</v>
+        <v>0.9950274285563029</v>
       </c>
       <c r="D25">
-        <v>0.9770283912464418</v>
+        <v>1.020462523367967</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717737</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9167779935878748</v>
+        <v>1.02477146764674</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025327824986248</v>
+        <v>1.043771073142417</v>
       </c>
       <c r="J25">
-        <v>0.9733245100758636</v>
+        <v>1.019723306277952</v>
       </c>
       <c r="K25">
-        <v>0.9899940962948977</v>
+        <v>1.032751277612695</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005615</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9308219910377247</v>
+        <v>1.0369970345779</v>
       </c>
       <c r="N25">
-        <v>0.974706742522053</v>
+        <v>1.010529923782579</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037853056735579</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034276775642871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9996497777179351</v>
+        <v>0.9997125395717789</v>
       </c>
       <c r="D2">
-        <v>1.023416893675827</v>
+        <v>1.023086229749827</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.028037318907923</v>
+        <v>1.027851298589812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044408564137034</v>
+        <v>1.044278700795574</v>
       </c>
       <c r="J2">
-        <v>1.021840968922484</v>
+        <v>1.021901851932544</v>
       </c>
       <c r="K2">
-        <v>1.034559355812157</v>
+        <v>1.034233039751252</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.039119393914685</v>
+        <v>1.038935791675514</v>
       </c>
       <c r="N2">
-        <v>1.011243260942137</v>
+        <v>1.013049975726953</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039532766076619</v>
+        <v>1.039387457004454</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035506698076518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035284772010592</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021209388801487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002942766688535</v>
+        <v>1.002893523128467</v>
       </c>
       <c r="D3">
-        <v>1.025537829358035</v>
+        <v>1.025071142329067</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.030381318682866</v>
+        <v>1.030095296817986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044848216397309</v>
+        <v>1.044661005254804</v>
       </c>
       <c r="J3">
-        <v>1.023353529126862</v>
+        <v>1.02330561738927</v>
       </c>
       <c r="K3">
-        <v>1.035854052308731</v>
+        <v>1.035392976292987</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.040639679961513</v>
+        <v>1.040357056256691</v>
       </c>
       <c r="N3">
-        <v>1.011753873496295</v>
+        <v>1.013426581239878</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040735971161568</v>
+        <v>1.040512293487081</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036419491239278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036102002214682</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021420320697423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005039741345792</v>
+        <v>1.004919931012067</v>
       </c>
       <c r="D4">
-        <v>1.026891817273309</v>
+        <v>1.026338998930978</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031880424451849</v>
+        <v>1.031531179885368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045118594305918</v>
+        <v>1.044895023459905</v>
       </c>
       <c r="J4">
-        <v>1.024315402728884</v>
+        <v>1.024198616287336</v>
       </c>
       <c r="K4">
-        <v>1.036676163910014</v>
+        <v>1.036129597815077</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041608724043899</v>
+        <v>1.041263381520996</v>
       </c>
       <c r="N4">
-        <v>1.012078547490968</v>
+        <v>1.013666166349967</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041502903922009</v>
+        <v>1.04122958879762</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037001697917775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036623842111318</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021551932608165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005916211618124</v>
+        <v>1.005767083610434</v>
       </c>
       <c r="D5">
-        <v>1.027460405996788</v>
+        <v>1.026871752175091</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.032509176269154</v>
+        <v>1.032133642326915</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045230570424934</v>
+        <v>1.044991856052736</v>
       </c>
       <c r="J5">
-        <v>1.024718536483854</v>
+        <v>1.024573061234383</v>
       </c>
       <c r="K5">
-        <v>1.037021746925667</v>
+        <v>1.03643957615489</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.04201528590286</v>
+        <v>1.041643837306759</v>
       </c>
       <c r="N5">
-        <v>1.012214834374056</v>
+        <v>1.013766804241943</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041824669855785</v>
+        <v>1.041530693676159</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037253252785886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036850931394902</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021607178666213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006066306776971</v>
+        <v>1.005912170824575</v>
       </c>
       <c r="D6">
-        <v>1.027560114603989</v>
+        <v>1.026965390579591</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.03261773508374</v>
+        <v>1.032237739857055</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045251196859085</v>
+        <v>1.045009910183912</v>
       </c>
       <c r="J6">
-        <v>1.024789300837644</v>
+        <v>1.024638921129619</v>
       </c>
       <c r="K6">
-        <v>1.037083999497185</v>
+        <v>1.036495795831139</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.042086542199155</v>
+        <v>1.041710662140286</v>
       </c>
       <c r="N6">
-        <v>1.012239026754778</v>
+        <v>1.013784718406393</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041881064331121</v>
+        <v>1.041583580974003</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037306047573967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036900327889821</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021617690342619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005060593180781</v>
+        <v>1.004947849199233</v>
       </c>
       <c r="D7">
-        <v>1.026911476770027</v>
+        <v>1.026363147195954</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031897503858607</v>
+        <v>1.031552197120508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045125529037225</v>
+        <v>1.044903945044409</v>
       </c>
       <c r="J7">
-        <v>1.024329684737753</v>
+        <v>1.024219785073979</v>
       </c>
       <c r="K7">
-        <v>1.036692705025432</v>
+        <v>1.036150574536144</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041622735199818</v>
+        <v>1.0412812850476</v>
       </c>
       <c r="N7">
-        <v>1.012084110314619</v>
+        <v>1.013698283501884</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041513992797013</v>
+        <v>1.041243758224069</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037033580088043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036660856434436</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021557675065724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00078116603232</v>
+        <v>1.000829165361961</v>
       </c>
       <c r="D8">
-        <v>1.024152450559938</v>
+        <v>1.023791180582041</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.028843933031078</v>
+        <v>1.028637392430559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044566820757053</v>
+        <v>1.04442439575837</v>
       </c>
       <c r="J8">
-        <v>1.022366732566391</v>
+        <v>1.022413342606428</v>
       </c>
       <c r="K8">
-        <v>1.03501490577222</v>
+        <v>1.034658247231445</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.039646870728044</v>
+        <v>1.039442936105707</v>
       </c>
       <c r="N8">
-        <v>1.011421718300676</v>
+        <v>1.013266528292113</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039950229048019</v>
+        <v>1.039788828326523</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03585180867609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035610691510927</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021290695043066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929567409964977</v>
+        <v>0.9932791305057068</v>
       </c>
       <c r="D9">
-        <v>1.019126564489261</v>
+        <v>1.019093773997354</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.023310062254291</v>
+        <v>1.023345972667561</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043464376006694</v>
+        <v>1.04346023884129</v>
       </c>
       <c r="J9">
-        <v>1.018760690198058</v>
+        <v>1.0190714728881</v>
       </c>
       <c r="K9">
-        <v>1.031916765339889</v>
+        <v>1.031884481672314</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.03603594096237</v>
+        <v>1.036071302149424</v>
       </c>
       <c r="N9">
-        <v>1.010203391778429</v>
+        <v>1.012378873196012</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037092412365941</v>
+        <v>1.037120398507176</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033658016800515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033645975551158</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020771921349517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9875969652775125</v>
+        <v>0.9881436164833088</v>
       </c>
       <c r="D10">
-        <v>1.01573081530911</v>
+        <v>1.015945965710615</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.019638475385705</v>
+        <v>1.019860860562429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042680091276512</v>
+        <v>1.042780309463581</v>
       </c>
       <c r="J10">
-        <v>1.016311471150901</v>
+        <v>1.016835669744708</v>
       </c>
       <c r="K10">
-        <v>1.029821737291641</v>
+        <v>1.03003315825413</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.033661978658043</v>
+        <v>1.033880547114075</v>
       </c>
       <c r="N10">
-        <v>1.009379613825545</v>
+        <v>1.011898472059059</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035265208665791</v>
+        <v>1.03543818132531</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032193575140435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032355524889706</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020421817420708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9856293773428814</v>
+        <v>0.9862885493870724</v>
       </c>
       <c r="D11">
-        <v>1.014684630202301</v>
+        <v>1.014999723565942</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.0189449230866</v>
+        <v>1.019246573333404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042522822400226</v>
+        <v>1.042663281731873</v>
       </c>
       <c r="J11">
-        <v>1.015612456864485</v>
+        <v>1.016243078760135</v>
       </c>
       <c r="K11">
-        <v>1.029334829385352</v>
+        <v>1.029644204491259</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.033518196178384</v>
+        <v>1.033814431341099</v>
       </c>
       <c r="N11">
-        <v>1.009175407237635</v>
+        <v>1.011990359618679</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035589088145374</v>
+        <v>1.035823406653648</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031882292249589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032116708288734</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020390933461369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9850298455704422</v>
+        <v>0.9857201132732453</v>
       </c>
       <c r="D12">
-        <v>1.01444507298139</v>
+        <v>1.014782961805172</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.019009151618948</v>
+        <v>1.019329883002567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042529915464119</v>
+        <v>1.042678118204994</v>
       </c>
       <c r="J12">
-        <v>1.015481565639178</v>
+        <v>1.016141364891002</v>
       </c>
       <c r="K12">
-        <v>1.029300663889247</v>
+        <v>1.02963232003788</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.033781008288613</v>
+        <v>1.034095892117245</v>
       </c>
       <c r="N12">
-        <v>1.009155824654064</v>
+        <v>1.012081822675156</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036124260038459</v>
+        <v>1.036373244656777</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03185813595247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032108305713135</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020418211865459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9854555472822959</v>
+        <v>0.9861045132616518</v>
       </c>
       <c r="D13">
-        <v>1.014826627363328</v>
+        <v>1.01512119688458</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.019684350304579</v>
+        <v>1.019972143419608</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042675874356116</v>
+        <v>1.042803974836106</v>
       </c>
       <c r="J13">
-        <v>1.015793544680325</v>
+        <v>1.016414003997031</v>
       </c>
       <c r="K13">
-        <v>1.029632081172025</v>
+        <v>1.029921240269373</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.034401100624464</v>
+        <v>1.034683673033749</v>
       </c>
       <c r="N13">
-        <v>1.009282845863787</v>
+        <v>1.012147307742982</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036891851142885</v>
+        <v>1.037115230113075</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032089957932133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032309834222214</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020496648264071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9862183370103742</v>
+        <v>0.986806341653629</v>
       </c>
       <c r="D14">
-        <v>1.015375605471037</v>
+        <v>1.015610626255197</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.02043299412991</v>
+        <v>1.020674769062706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04284079939772</v>
+        <v>1.04294269896568</v>
       </c>
       <c r="J14">
-        <v>1.016212396294853</v>
+        <v>1.016774937499318</v>
       </c>
       <c r="K14">
-        <v>1.030029867537873</v>
+        <v>1.030260624751419</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.034996072024484</v>
+        <v>1.035233517176031</v>
       </c>
       <c r="N14">
-        <v>1.009438184661335</v>
+        <v>1.012182681390725</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037535797046323</v>
+        <v>1.037723476618567</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032372638234756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032551355362752</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020575000596962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866325792750753</v>
+        <v>0.9871903938624257</v>
       </c>
       <c r="D15">
-        <v>1.015652960126656</v>
+        <v>1.015859223647237</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.020764931318036</v>
+        <v>1.020984336931794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042915016025985</v>
+        <v>1.043004585704091</v>
       </c>
       <c r="J15">
-        <v>1.016417703110103</v>
+        <v>1.01695157044278</v>
       </c>
       <c r="K15">
-        <v>1.030215278402846</v>
+        <v>1.030417828117495</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.035235781833202</v>
+        <v>1.035451288256007</v>
       </c>
       <c r="N15">
-        <v>1.009510536893645</v>
+        <v>1.01219052740196</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037762857676148</v>
+        <v>1.037933192108464</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032509624409411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032668965560284</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020607945472163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9888188129316726</v>
+        <v>0.9892374060073517</v>
       </c>
       <c r="D16">
-        <v>1.017022845083521</v>
+        <v>1.017097005799116</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.022223710871824</v>
+        <v>1.022340182505641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043235698182795</v>
+        <v>1.043270041064368</v>
       </c>
       <c r="J16">
-        <v>1.017404951679469</v>
+        <v>1.017806464029099</v>
       </c>
       <c r="K16">
-        <v>1.031055605808001</v>
+        <v>1.031128488754828</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.036167442384932</v>
+        <v>1.036281933628602</v>
       </c>
       <c r="N16">
-        <v>1.009838565630448</v>
+        <v>1.012209764978232</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038460458838394</v>
+        <v>1.038550954307455</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033106950937793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033174911171851</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020739178261329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9900989174083527</v>
+        <v>0.9904514062355755</v>
       </c>
       <c r="D17">
-        <v>1.017787895226777</v>
+        <v>1.017797753147555</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.022946699932625</v>
+        <v>1.023013336520762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043392956682822</v>
+        <v>1.04340095856211</v>
       </c>
       <c r="J17">
-        <v>1.017942969692597</v>
+        <v>1.018281533495456</v>
       </c>
       <c r="K17">
-        <v>1.031491064472924</v>
+        <v>1.031500757250689</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.036564007115169</v>
+        <v>1.036629541908939</v>
       </c>
       <c r="N17">
-        <v>1.010008795727362</v>
+        <v>1.012235093233257</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038644645373485</v>
+        <v>1.038696450154247</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033417438571315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033440968029167</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020799423738484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9907057711915799</v>
+        <v>0.9910390849356623</v>
       </c>
       <c r="D18">
-        <v>1.018078984358353</v>
+        <v>1.018070905012235</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.023051458373345</v>
+        <v>1.023103958788045</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043414884744487</v>
+        <v>1.043416465329746</v>
       </c>
       <c r="J18">
-        <v>1.018124560718237</v>
+        <v>1.018444952213527</v>
       </c>
       <c r="K18">
-        <v>1.031592781116486</v>
+        <v>1.031584834931895</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.036483812785917</v>
+        <v>1.03653545874103</v>
       </c>
       <c r="N18">
-        <v>1.010051265477667</v>
+        <v>1.012224553550335</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038343054723062</v>
+        <v>1.038383889020085</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033477675837739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033487601084014</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020795192353287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9907086437414117</v>
+        <v>0.9910590152993995</v>
       </c>
       <c r="D19">
-        <v>1.01795112549538</v>
+        <v>1.017963041671371</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.02259528102041</v>
+        <v>1.022662491411758</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04332104555123</v>
+        <v>1.043332515936185</v>
       </c>
       <c r="J19">
-        <v>1.017990611843519</v>
+        <v>1.018327479920086</v>
       </c>
       <c r="K19">
-        <v>1.031404108235655</v>
+        <v>1.031415829003368</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.035972549233987</v>
+        <v>1.036038670363868</v>
       </c>
       <c r="N19">
-        <v>1.00998317047103</v>
+        <v>1.012165212058256</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037612454782229</v>
+        <v>1.037664751168355</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033350697315985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033375152637922</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02073545346042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9890084175389661</v>
+        <v>0.9894737792530639</v>
       </c>
       <c r="D20">
-        <v>1.01663970098249</v>
+        <v>1.016774683193415</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.020612215743083</v>
+        <v>1.020772609550823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04290105856339</v>
+        <v>1.042967076051803</v>
       </c>
       <c r="J20">
-        <v>1.016969721889975</v>
+        <v>1.017416587441755</v>
       </c>
       <c r="K20">
-        <v>1.030396138348093</v>
+        <v>1.030528846607012</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.034302055080691</v>
+        <v>1.034459773959335</v>
       </c>
       <c r="N20">
-        <v>1.009603359929572</v>
+        <v>1.011957169071776</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035761173470063</v>
+        <v>1.03588599197304</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032641954885482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032752345144191</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020518377784935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849146673884743</v>
+        <v>0.9856636316654752</v>
       </c>
       <c r="D21">
-        <v>1.014014040653664</v>
+        <v>1.014417548072705</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.01769479149951</v>
+        <v>1.018065093231583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042257197531536</v>
+        <v>1.042438447696192</v>
       </c>
       <c r="J21">
-        <v>1.015056926102756</v>
+        <v>1.015773224621929</v>
       </c>
       <c r="K21">
-        <v>1.028734689354943</v>
+        <v>1.029130828615348</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.032348510119796</v>
+        <v>1.032712113194281</v>
       </c>
       <c r="N21">
-        <v>1.008954169537472</v>
+        <v>1.011931203808469</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034174038203073</v>
+        <v>1.034461808153843</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031470475656676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031767451178099</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020249247688104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9823102168247181</v>
+        <v>0.9832380537913074</v>
       </c>
       <c r="D22">
-        <v>1.012354834832517</v>
+        <v>1.012928056427468</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.015886104481143</v>
+        <v>1.016389135945679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041842744118994</v>
+        <v>1.042096865055479</v>
       </c>
       <c r="J22">
-        <v>1.013846957479268</v>
+        <v>1.014731991392956</v>
       </c>
       <c r="K22">
-        <v>1.027685449961256</v>
+        <v>1.028247683994125</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.031149289665828</v>
+        <v>1.03164276554665</v>
       </c>
       <c r="N22">
-        <v>1.008544326789491</v>
+        <v>1.011908682087577</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033224926552235</v>
+        <v>1.033615483511473</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03071504261977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031128157798014</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020078208325586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9836867832089136</v>
+        <v>0.9845072448561797</v>
       </c>
       <c r="D23">
-        <v>1.013225882730628</v>
+        <v>1.013700312785125</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.016839306700737</v>
+        <v>1.01726443939674</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042059083889122</v>
+        <v>1.042270660354849</v>
       </c>
       <c r="J23">
-        <v>1.014482340492865</v>
+        <v>1.015266052857575</v>
       </c>
       <c r="K23">
-        <v>1.028232956099603</v>
+        <v>1.028698521100104</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.031779132513986</v>
+        <v>1.032196394237031</v>
       </c>
       <c r="N23">
-        <v>1.008758734386514</v>
+        <v>1.011875687283216</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033723409858597</v>
+        <v>1.034053647601761</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031092477691399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031436302163389</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020163657275434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9890236808072165</v>
+        <v>0.9894902430955224</v>
       </c>
       <c r="D24">
-        <v>1.016622291780557</v>
+        <v>1.016758774463474</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.020555877558001</v>
+        <v>1.020717382735854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042884243963493</v>
+        <v>1.042951157893733</v>
       </c>
       <c r="J24">
-        <v>1.016950901828835</v>
+        <v>1.017398947201818</v>
       </c>
       <c r="K24">
-        <v>1.03036365675782</v>
+        <v>1.030497843064514</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.034231375572475</v>
+        <v>1.034390190359953</v>
       </c>
       <c r="N24">
-        <v>1.009593067087753</v>
+        <v>1.011945592753459</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035664211623326</v>
+        <v>1.035789903718985</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032591464294601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032700231511662</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020506708954248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950274285563029</v>
+        <v>0.9952668470536455</v>
       </c>
       <c r="D25">
-        <v>1.020462523367967</v>
+        <v>1.020336069802828</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.02477146764674</v>
+        <v>1.024737304918122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043771073142417</v>
+        <v>1.04372734451103</v>
       </c>
       <c r="J25">
-        <v>1.019723306277952</v>
+        <v>1.019954557397509</v>
       </c>
       <c r="K25">
-        <v>1.032751277612695</v>
+        <v>1.032626688629224</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.0369970345779</v>
+        <v>1.036963370167823</v>
       </c>
       <c r="N25">
-        <v>1.010529923782579</v>
+        <v>1.012584030061427</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037853056735579</v>
+        <v>1.037826413513326</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034276775642871</v>
+        <v>1.034202267900421</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020914238174487</v>
       </c>
     </row>
   </sheetData>
